--- a/RCR/RCR.xlsx
+++ b/RCR/RCR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="233">
   <si>
     <t>Notes</t>
   </si>
@@ -724,6 +724,30 @@
   <si>
     <t>1st scroll</t>
   </si>
+  <si>
+    <t>Screen 2 End</t>
+  </si>
+  <si>
+    <t>Screen 3 End</t>
+  </si>
+  <si>
+    <t>Screen 3 Begin</t>
+  </si>
+  <si>
+    <t>Screen 2 Begin</t>
+  </si>
+  <si>
+    <t>Screen 4 Begin</t>
+  </si>
+  <si>
+    <t>Screen 4 End</t>
+  </si>
+  <si>
+    <t>Screen 5 Begin</t>
+  </si>
+  <si>
+    <t>Screen 5 End</t>
+  </si>
 </sst>
 </file>
 
@@ -733,10 +757,17 @@
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1642,34 +1673,34 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1677,208 +1708,208 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="19" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="19" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1888,10 +1919,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1912,134 +1943,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -2357,11 +2391,11 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -2377,19 +2411,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="154" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="154" t="s">
+      <c r="B1" s="153"/>
+      <c r="C1" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="156"/>
       <c r="G1" s="140"/>
       <c r="H1" s="141">
-        <f>SUM(G1:G65535)</f>
+        <f>SUM(G1:G65543)</f>
         <v>0</v>
       </c>
       <c r="I1" s="141" t="s">
@@ -2464,10 +2498,10 @@
       <c r="B5" s="147" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="152" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="147"/>
       <c r="F5" s="143"/>
       <c r="G5" s="140"/>
@@ -2483,10 +2517,10 @@
       <c r="B6" s="147" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="152" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="152"/>
+      <c r="D6" s="153"/>
       <c r="E6" s="147"/>
       <c r="F6" s="143"/>
       <c r="G6" s="140"/>
@@ -2504,7 +2538,7 @@
       <c r="F7" s="93"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="156" t="s">
+      <c r="A8" s="157" t="s">
         <v>188</v>
       </c>
       <c r="B8" s="95" t="s">
@@ -2524,7 +2558,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="149"/>
+      <c r="A9" s="150"/>
       <c r="B9" s="98" t="s">
         <v>184</v>
       </c>
@@ -2538,8 +2572,8 @@
       <c r="F9" s="104"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="149"/>
-      <c r="B10" s="212" t="s">
+      <c r="A10" s="150"/>
+      <c r="B10" s="148" t="s">
         <v>217</v>
       </c>
       <c r="C10" s="101">
@@ -2555,8 +2589,8 @@
       <c r="F10" s="105"/>
     </row>
     <row r="11" spans="1:11" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="149"/>
-      <c r="B11" s="212" t="s">
+      <c r="A11" s="150"/>
+      <c r="B11" s="148" t="s">
         <v>218</v>
       </c>
       <c r="C11" s="101">
@@ -2572,8 +2606,8 @@
       <c r="F11" s="105"/>
     </row>
     <row r="12" spans="1:11" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="149"/>
-      <c r="B12" s="212" t="s">
+      <c r="A12" s="150"/>
+      <c r="B12" s="148" t="s">
         <v>219</v>
       </c>
       <c r="C12" s="101">
@@ -2589,8 +2623,8 @@
       <c r="F12" s="105"/>
     </row>
     <row r="13" spans="1:11" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="149"/>
-      <c r="B13" s="212" t="s">
+      <c r="A13" s="150"/>
+      <c r="B13" s="148" t="s">
         <v>220</v>
       </c>
       <c r="C13" s="101">
@@ -2606,8 +2640,8 @@
       <c r="F13" s="105"/>
     </row>
     <row r="14" spans="1:11" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="149"/>
-      <c r="B14" s="212" t="s">
+      <c r="A14" s="150"/>
+      <c r="B14" s="148" t="s">
         <v>221</v>
       </c>
       <c r="C14" s="101">
@@ -2623,7 +2657,7 @@
       <c r="F14" s="105"/>
     </row>
     <row r="15" spans="1:11" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="149"/>
+      <c r="A15" s="150"/>
       <c r="B15" s="100"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
@@ -2634,7 +2668,7 @@
       <c r="F15" s="105"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="149"/>
+      <c r="A16" s="150"/>
       <c r="B16" s="98" t="s">
         <v>187</v>
       </c>
@@ -2677,7 +2711,7 @@
     </row>
     <row r="18" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="150" t="s">
+      <c r="A19" s="151" t="s">
         <v>168</v>
       </c>
       <c r="B19" s="109" t="s">
@@ -2697,7 +2731,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="149"/>
+      <c r="A20" s="150"/>
       <c r="B20" s="98" t="s">
         <v>184</v>
       </c>
@@ -2708,14 +2742,14 @@
         <v>469</v>
       </c>
       <c r="E20" s="123">
-        <f t="shared" ref="E20:E33" si="1">IF(AND(C20&gt;0,D20&gt;0), D20-C20, 0)</f>
+        <f t="shared" ref="E20:E41" si="1">IF(AND(C20&gt;0,D20&gt;0), D20-C20, 0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="104"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="149"/>
-      <c r="B21" s="212" t="s">
+      <c r="A21" s="150"/>
+      <c r="B21" s="148" t="s">
         <v>222</v>
       </c>
       <c r="C21" s="101">
@@ -2731,8 +2765,8 @@
       <c r="F21" s="105"/>
     </row>
     <row r="22" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="149"/>
-      <c r="B22" s="212" t="s">
+      <c r="A22" s="150"/>
+      <c r="B22" s="148" t="s">
         <v>224</v>
       </c>
       <c r="C22" s="101">
@@ -2748,8 +2782,8 @@
       <c r="F22" s="105"/>
     </row>
     <row r="23" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="149"/>
-      <c r="B23" s="212" t="s">
+      <c r="A23" s="150"/>
+      <c r="B23" s="148" t="s">
         <v>223</v>
       </c>
       <c r="C23" s="101">
@@ -2765,32 +2799,50 @@
       <c r="F23" s="105"/>
     </row>
     <row r="24" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="149"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
+      <c r="A24" s="150"/>
+      <c r="B24" s="213" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="101">
+        <v>865</v>
+      </c>
+      <c r="D24" s="101">
+        <v>864</v>
+      </c>
       <c r="E24" s="123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F24" s="105"/>
     </row>
     <row r="25" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="149"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
+      <c r="A25" s="150"/>
+      <c r="B25" s="148" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="101">
+        <v>995</v>
+      </c>
+      <c r="D25" s="101">
+        <v>993</v>
+      </c>
       <c r="E25" s="123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F25" s="105"/>
     </row>
     <row r="26" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="149"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
+      <c r="A26" s="150"/>
+      <c r="B26" s="213" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="101">
+        <v>1147</v>
+      </c>
+      <c r="D26" s="101">
+        <v>1147</v>
+      </c>
       <c r="E26" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2798,10 +2850,16 @@
       <c r="F26" s="105"/>
     </row>
     <row r="27" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="149"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
+      <c r="A27" s="150"/>
+      <c r="B27" s="213" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="101">
+        <v>1177</v>
+      </c>
+      <c r="D27" s="101">
+        <v>1177</v>
+      </c>
       <c r="E27" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2809,10 +2867,16 @@
       <c r="F27" s="105"/>
     </row>
     <row r="28" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="149"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
+      <c r="A28" s="150"/>
+      <c r="B28" s="213" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="101">
+        <v>1430</v>
+      </c>
+      <c r="D28" s="101">
+        <v>1430</v>
+      </c>
       <c r="E28" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2820,21 +2884,33 @@
       <c r="F28" s="105"/>
     </row>
     <row r="29" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="149"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
+      <c r="A29" s="150"/>
+      <c r="B29" s="213" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="101">
+        <v>1461</v>
+      </c>
+      <c r="D29" s="101">
+        <v>1460</v>
+      </c>
       <c r="E29" s="123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F29" s="105"/>
     </row>
     <row r="30" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="149"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
+      <c r="A30" s="150"/>
+      <c r="B30" s="213" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="101">
+        <v>1871</v>
+      </c>
+      <c r="D30" s="101">
+        <v>1871</v>
+      </c>
       <c r="E30" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2842,10 +2918,14 @@
       <c r="F30" s="105"/>
     </row>
     <row r="31" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="149"/>
-      <c r="B31" s="100"/>
+      <c r="A31" s="150"/>
+      <c r="B31" s="213" t="s">
+        <v>231</v>
+      </c>
       <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
+      <c r="D31" s="101">
+        <v>1893</v>
+      </c>
       <c r="E31" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2853,189 +2933,195 @@
       <c r="F31" s="105"/>
     </row>
     <row r="32" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="149"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
+      <c r="A32" s="150"/>
+      <c r="B32" s="213" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="101">
+        <v>2123</v>
+      </c>
+      <c r="D32" s="101">
+        <v>2097</v>
+      </c>
       <c r="E32" s="123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="F32" s="105"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="149"/>
-      <c r="B33" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="125">
+    <row r="33" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="150"/>
+      <c r="B33" s="213"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="104"/>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="117">
-        <v>1</v>
-      </c>
-      <c r="B34" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C34" s="103">
-        <f>C33-C20</f>
-        <v>-469</v>
-      </c>
-      <c r="D34" s="103">
-        <f>D33-D20</f>
-        <v>-469</v>
-      </c>
-      <c r="E34" s="126">
-        <f>E33-E20</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="108"/>
-      <c r="G34" s="112">
-        <f>E34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="148" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="C36" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="115" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="149"/>
-      <c r="B37" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
+      <c r="F33" s="105"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="150"/>
+      <c r="B34" s="213"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="105"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="150"/>
+      <c r="B35" s="213"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="105"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="150"/>
+      <c r="B36" s="213"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="105"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="150"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
       <c r="E37" s="123">
-        <f t="shared" ref="E37:E50" si="2">IF(AND(C37&gt;0,D37&gt;0), D37-C37, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="104"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="149"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="105"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="150"/>
       <c r="B38" s="100"/>
       <c r="C38" s="101"/>
       <c r="D38" s="101"/>
-      <c r="E38" s="124">
-        <f t="shared" si="2"/>
+      <c r="E38" s="123">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F38" s="105"/>
     </row>
-    <row r="39" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="149"/>
+    <row r="39" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="150"/>
       <c r="B39" s="100"/>
       <c r="C39" s="101"/>
       <c r="D39" s="101"/>
       <c r="E39" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F39" s="105"/>
     </row>
-    <row r="40" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="149"/>
+    <row r="40" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="150"/>
       <c r="B40" s="100"/>
       <c r="C40" s="101"/>
       <c r="D40" s="101"/>
       <c r="E40" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F40" s="105"/>
     </row>
-    <row r="41" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="149"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="105"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="149"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="105"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="149"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="105"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="149"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="105"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="149"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
+    <row r="41" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="150"/>
+      <c r="B41" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="104"/>
+    </row>
+    <row r="42" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="117">
+        <v>1</v>
+      </c>
+      <c r="B42" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="103">
+        <f>C41-C20</f>
+        <v>-469</v>
+      </c>
+      <c r="D42" s="103">
+        <f>D41-D20</f>
+        <v>-469</v>
+      </c>
+      <c r="E42" s="126">
+        <f>E41-E20</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="108"/>
+      <c r="G42" s="112">
+        <f>E42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="149" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="115" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="150"/>
+      <c r="B45" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
       <c r="E45" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="105"/>
-    </row>
-    <row r="46" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="149"/>
+        <f t="shared" ref="E45:E58" si="2">IF(AND(C45&gt;0,D45&gt;0), D45-C45, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="104"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="150"/>
       <c r="B46" s="100"/>
       <c r="C46" s="101"/>
       <c r="D46" s="101"/>
-      <c r="E46" s="123">
+      <c r="E46" s="124">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F46" s="105"/>
     </row>
     <row r="47" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="149"/>
+      <c r="A47" s="150"/>
       <c r="B47" s="100"/>
       <c r="C47" s="101"/>
       <c r="D47" s="101"/>
@@ -3046,7 +3132,7 @@
       <c r="F47" s="105"/>
     </row>
     <row r="48" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="149"/>
+      <c r="A48" s="150"/>
       <c r="B48" s="100"/>
       <c r="C48" s="101"/>
       <c r="D48" s="101"/>
@@ -3057,7 +3143,7 @@
       <c r="F48" s="105"/>
     </row>
     <row r="49" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="149"/>
+      <c r="A49" s="150"/>
       <c r="B49" s="100"/>
       <c r="C49" s="101"/>
       <c r="D49" s="101"/>
@@ -3067,179 +3153,179 @@
       </c>
       <c r="F49" s="105"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="149"/>
-      <c r="B50" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="125">
+    <row r="50" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="150"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F50" s="104"/>
-    </row>
-    <row r="51" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="116">
-        <v>2</v>
-      </c>
-      <c r="B51" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="103">
-        <f>C50-C37</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="103">
-        <f>D50-D37</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="126">
-        <f>E50-E37</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="107"/>
-      <c r="G51" s="112">
-        <f>E51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="150" t="s">
-        <v>171</v>
-      </c>
-      <c r="B53" s="109" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="111" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="149"/>
-      <c r="B54" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
+      <c r="F50" s="105"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="150"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="105"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="150"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="105"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="150"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="105"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="150"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="101"/>
       <c r="E54" s="123">
-        <f t="shared" ref="E54:E67" si="3">IF(AND(C54&gt;0,D54&gt;0), D54-C54, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="104"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="149"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="105"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="150"/>
       <c r="B55" s="100"/>
       <c r="C55" s="101"/>
       <c r="D55" s="101"/>
-      <c r="E55" s="124">
-        <f t="shared" si="3"/>
+      <c r="E55" s="123">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F55" s="105"/>
     </row>
     <row r="56" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="149"/>
+      <c r="A56" s="150"/>
       <c r="B56" s="100"/>
       <c r="C56" s="101"/>
       <c r="D56" s="101"/>
       <c r="E56" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F56" s="105"/>
     </row>
     <row r="57" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="149"/>
+      <c r="A57" s="150"/>
       <c r="B57" s="100"/>
       <c r="C57" s="101"/>
       <c r="D57" s="101"/>
       <c r="E57" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F57" s="105"/>
     </row>
-    <row r="58" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="149"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="105"/>
-    </row>
-    <row r="59" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="149"/>
-      <c r="B59" s="100"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="105"/>
-    </row>
-    <row r="60" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="149"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="101"/>
-      <c r="D60" s="101"/>
-      <c r="E60" s="123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="105"/>
-    </row>
-    <row r="61" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="149"/>
-      <c r="B61" s="100"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="101"/>
-      <c r="E61" s="123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="105"/>
-    </row>
-    <row r="62" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="149"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="101"/>
-      <c r="D62" s="101"/>
+    <row r="58" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="150"/>
+      <c r="B58" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="104"/>
+    </row>
+    <row r="59" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="116">
+        <v>2</v>
+      </c>
+      <c r="B59" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" s="103">
+        <f>C58-C45</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="103">
+        <f>D58-D45</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="126">
+        <f>E58-E45</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="107"/>
+      <c r="G59" s="112">
+        <f>E59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="151" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" s="111" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="150"/>
+      <c r="B62" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
       <c r="E62" s="123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="105"/>
-    </row>
-    <row r="63" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="149"/>
+        <f t="shared" ref="E62:E75" si="3">IF(AND(C62&gt;0,D62&gt;0), D62-C62, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="104"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="150"/>
       <c r="B63" s="100"/>
       <c r="C63" s="101"/>
       <c r="D63" s="101"/>
-      <c r="E63" s="123">
+      <c r="E63" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F63" s="105"/>
     </row>
     <row r="64" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="149"/>
+      <c r="A64" s="150"/>
       <c r="B64" s="100"/>
       <c r="C64" s="101"/>
       <c r="D64" s="101"/>
@@ -3250,7 +3336,7 @@
       <c r="F64" s="105"/>
     </row>
     <row r="65" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="149"/>
+      <c r="A65" s="150"/>
       <c r="B65" s="100"/>
       <c r="C65" s="101"/>
       <c r="D65" s="101"/>
@@ -3261,7 +3347,7 @@
       <c r="F65" s="105"/>
     </row>
     <row r="66" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="149"/>
+      <c r="A66" s="150"/>
       <c r="B66" s="100"/>
       <c r="C66" s="101"/>
       <c r="D66" s="101"/>
@@ -3271,179 +3357,179 @@
       </c>
       <c r="F66" s="105"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="149"/>
-      <c r="B67" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="125">
+    <row r="67" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="150"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F67" s="104"/>
-    </row>
-    <row r="68" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="117">
-        <v>3</v>
-      </c>
-      <c r="B68" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C68" s="103">
-        <f>C67-C54</f>
-        <v>0</v>
-      </c>
-      <c r="D68" s="103">
-        <f>D67-D54</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="126">
-        <f>E67-E54</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="108"/>
-      <c r="G68" s="112">
-        <f>E68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="148" t="s">
-        <v>172</v>
-      </c>
-      <c r="B70" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="C70" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="F70" s="115" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="149"/>
-      <c r="B71" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="C71" s="99"/>
-      <c r="D71" s="99"/>
+      <c r="F67" s="105"/>
+    </row>
+    <row r="68" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="150"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="105"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="150"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="105"/>
+    </row>
+    <row r="70" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="150"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="105"/>
+    </row>
+    <row r="71" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="150"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
       <c r="E71" s="123">
-        <f t="shared" ref="E71:E84" si="4">IF(AND(C71&gt;0,D71&gt;0), D71-C71, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F71" s="104"/>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="149"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="105"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="150"/>
       <c r="B72" s="100"/>
       <c r="C72" s="101"/>
       <c r="D72" s="101"/>
-      <c r="E72" s="124">
-        <f t="shared" si="4"/>
+      <c r="E72" s="123">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F72" s="105"/>
     </row>
     <row r="73" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="149"/>
+      <c r="A73" s="150"/>
       <c r="B73" s="100"/>
       <c r="C73" s="101"/>
       <c r="D73" s="101"/>
       <c r="E73" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F73" s="105"/>
     </row>
     <row r="74" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="149"/>
+      <c r="A74" s="150"/>
       <c r="B74" s="100"/>
       <c r="C74" s="101"/>
       <c r="D74" s="101"/>
       <c r="E74" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F74" s="105"/>
     </row>
-    <row r="75" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="149"/>
-      <c r="B75" s="100"/>
-      <c r="C75" s="101"/>
-      <c r="D75" s="101"/>
-      <c r="E75" s="123">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="105"/>
-    </row>
-    <row r="76" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="149"/>
-      <c r="B76" s="100"/>
-      <c r="C76" s="101"/>
-      <c r="D76" s="101"/>
-      <c r="E76" s="123">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F76" s="105"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="149"/>
-      <c r="B77" s="100"/>
-      <c r="C77" s="101"/>
-      <c r="D77" s="101"/>
-      <c r="E77" s="123">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="105"/>
-    </row>
-    <row r="78" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="149"/>
-      <c r="B78" s="100"/>
-      <c r="C78" s="101"/>
-      <c r="D78" s="101"/>
-      <c r="E78" s="123">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F78" s="105"/>
-    </row>
-    <row r="79" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="149"/>
-      <c r="B79" s="100"/>
-      <c r="C79" s="101"/>
-      <c r="D79" s="101"/>
+    <row r="75" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="150"/>
+      <c r="B75" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="99"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="125">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="104"/>
+    </row>
+    <row r="76" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="117">
+        <v>3</v>
+      </c>
+      <c r="B76" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="103">
+        <f>C75-C62</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="103">
+        <f>D75-D62</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="126">
+        <f>E75-E62</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="108"/>
+      <c r="G76" s="112">
+        <f>E76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="149" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="115" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="150"/>
+      <c r="B79" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" s="99"/>
+      <c r="D79" s="99"/>
       <c r="E79" s="123">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F79" s="105"/>
-    </row>
-    <row r="80" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="149"/>
+        <f t="shared" ref="E79:E92" si="4">IF(AND(C79&gt;0,D79&gt;0), D79-C79, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="104"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="150"/>
       <c r="B80" s="100"/>
       <c r="C80" s="101"/>
       <c r="D80" s="101"/>
-      <c r="E80" s="123">
+      <c r="E80" s="124">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F80" s="105"/>
     </row>
     <row r="81" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="149"/>
+      <c r="A81" s="150"/>
       <c r="B81" s="100"/>
       <c r="C81" s="101"/>
       <c r="D81" s="101"/>
@@ -3454,7 +3540,7 @@
       <c r="F81" s="105"/>
     </row>
     <row r="82" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="149"/>
+      <c r="A82" s="150"/>
       <c r="B82" s="100"/>
       <c r="C82" s="101"/>
       <c r="D82" s="101"/>
@@ -3465,7 +3551,7 @@
       <c r="F82" s="105"/>
     </row>
     <row r="83" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="149"/>
+      <c r="A83" s="150"/>
       <c r="B83" s="100"/>
       <c r="C83" s="101"/>
       <c r="D83" s="101"/>
@@ -3475,179 +3561,179 @@
       </c>
       <c r="F83" s="105"/>
     </row>
-    <row r="84" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="149"/>
-      <c r="B84" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="C84" s="99"/>
-      <c r="D84" s="99"/>
-      <c r="E84" s="125">
+    <row r="84" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="150"/>
+      <c r="B84" s="100"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="123">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F84" s="104"/>
-    </row>
-    <row r="85" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="116">
-        <v>4</v>
-      </c>
-      <c r="B85" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C85" s="103">
-        <f>C84-C71</f>
-        <v>0</v>
-      </c>
-      <c r="D85" s="103">
-        <f>D84-D71</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="126">
-        <f>E84-E71</f>
-        <v>0</v>
-      </c>
-      <c r="F85" s="107"/>
-      <c r="G85" s="112">
-        <f>E85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="150" t="s">
-        <v>173</v>
-      </c>
-      <c r="B87" s="109" t="s">
-        <v>182</v>
-      </c>
-      <c r="C87" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="D87" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="E87" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="F87" s="111" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="149"/>
-      <c r="B88" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="C88" s="99"/>
-      <c r="D88" s="99"/>
+      <c r="F84" s="105"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="150"/>
+      <c r="B85" s="100"/>
+      <c r="C85" s="101"/>
+      <c r="D85" s="101"/>
+      <c r="E85" s="123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="105"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="150"/>
+      <c r="B86" s="100"/>
+      <c r="C86" s="101"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="105"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="150"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="101"/>
+      <c r="E87" s="123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="105"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="150"/>
+      <c r="B88" s="100"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="101"/>
       <c r="E88" s="123">
-        <f t="shared" ref="E88:E101" si="5">IF(AND(C88&gt;0,D88&gt;0), D88-C88, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F88" s="104"/>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="149"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="105"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="150"/>
       <c r="B89" s="100"/>
       <c r="C89" s="101"/>
       <c r="D89" s="101"/>
-      <c r="E89" s="124">
-        <f t="shared" si="5"/>
+      <c r="E89" s="123">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F89" s="105"/>
     </row>
     <row r="90" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="149"/>
+      <c r="A90" s="150"/>
       <c r="B90" s="100"/>
       <c r="C90" s="101"/>
       <c r="D90" s="101"/>
       <c r="E90" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F90" s="105"/>
     </row>
     <row r="91" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="149"/>
+      <c r="A91" s="150"/>
       <c r="B91" s="100"/>
       <c r="C91" s="101"/>
       <c r="D91" s="101"/>
       <c r="E91" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F91" s="105"/>
     </row>
-    <row r="92" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="149"/>
-      <c r="B92" s="100"/>
-      <c r="C92" s="101"/>
-      <c r="D92" s="101"/>
-      <c r="E92" s="123">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F92" s="105"/>
-    </row>
-    <row r="93" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="149"/>
-      <c r="B93" s="100"/>
-      <c r="C93" s="101"/>
-      <c r="D93" s="101"/>
-      <c r="E93" s="123">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F93" s="105"/>
-    </row>
-    <row r="94" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="149"/>
-      <c r="B94" s="100"/>
-      <c r="C94" s="101"/>
-      <c r="D94" s="101"/>
-      <c r="E94" s="123">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F94" s="105"/>
-    </row>
-    <row r="95" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="149"/>
-      <c r="B95" s="100"/>
-      <c r="C95" s="101"/>
-      <c r="D95" s="101"/>
-      <c r="E95" s="123">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F95" s="105"/>
-    </row>
-    <row r="96" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="149"/>
-      <c r="B96" s="100"/>
-      <c r="C96" s="101"/>
-      <c r="D96" s="101"/>
+    <row r="92" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="150"/>
+      <c r="B92" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" s="99"/>
+      <c r="D92" s="99"/>
+      <c r="E92" s="125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="104"/>
+    </row>
+    <row r="93" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="116">
+        <v>4</v>
+      </c>
+      <c r="B93" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" s="103">
+        <f>C92-C79</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="103">
+        <f>D92-D79</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="126">
+        <f>E92-E79</f>
+        <v>0</v>
+      </c>
+      <c r="F93" s="107"/>
+      <c r="G93" s="112">
+        <f>E93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="151" t="s">
+        <v>173</v>
+      </c>
+      <c r="B95" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="111" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="150"/>
+      <c r="B96" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="99"/>
+      <c r="D96" s="99"/>
       <c r="E96" s="123">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F96" s="105"/>
-    </row>
-    <row r="97" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="149"/>
+        <f t="shared" ref="E96:E109" si="5">IF(AND(C96&gt;0,D96&gt;0), D96-C96, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="104"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="150"/>
       <c r="B97" s="100"/>
       <c r="C97" s="101"/>
       <c r="D97" s="101"/>
-      <c r="E97" s="123">
+      <c r="E97" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F97" s="105"/>
     </row>
     <row r="98" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="149"/>
+      <c r="A98" s="150"/>
       <c r="B98" s="100"/>
       <c r="C98" s="101"/>
       <c r="D98" s="101"/>
@@ -3658,7 +3744,7 @@
       <c r="F98" s="105"/>
     </row>
     <row r="99" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="149"/>
+      <c r="A99" s="150"/>
       <c r="B99" s="100"/>
       <c r="C99" s="101"/>
       <c r="D99" s="101"/>
@@ -3669,7 +3755,7 @@
       <c r="F99" s="105"/>
     </row>
     <row r="100" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="149"/>
+      <c r="A100" s="150"/>
       <c r="B100" s="100"/>
       <c r="C100" s="101"/>
       <c r="D100" s="101"/>
@@ -3679,178 +3765,178 @@
       </c>
       <c r="F100" s="105"/>
     </row>
-    <row r="101" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="149"/>
-      <c r="B101" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="C101" s="99"/>
-      <c r="D101" s="99"/>
-      <c r="E101" s="125">
+    <row r="101" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="150"/>
+      <c r="B101" s="100"/>
+      <c r="C101" s="101"/>
+      <c r="D101" s="101"/>
+      <c r="E101" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F101" s="104"/>
-    </row>
-    <row r="102" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="117">
-        <v>5</v>
-      </c>
-      <c r="B102" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C102" s="103">
-        <f>C101-C88</f>
-        <v>0</v>
-      </c>
-      <c r="D102" s="103">
-        <f>D101-D88</f>
-        <v>0</v>
-      </c>
-      <c r="E102" s="126">
-        <f>E101-E88</f>
-        <v>0</v>
-      </c>
-      <c r="F102" s="108"/>
-      <c r="G102" s="112">
-        <f>E102</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="B104" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="C104" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="D104" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E104" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="F104" s="115" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="149"/>
-      <c r="B105" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="99"/>
-      <c r="D105" s="99"/>
+      <c r="F101" s="105"/>
+    </row>
+    <row r="102" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="150"/>
+      <c r="B102" s="100"/>
+      <c r="C102" s="101"/>
+      <c r="D102" s="101"/>
+      <c r="E102" s="123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="105"/>
+    </row>
+    <row r="103" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="150"/>
+      <c r="B103" s="100"/>
+      <c r="C103" s="101"/>
+      <c r="D103" s="101"/>
+      <c r="E103" s="123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="105"/>
+    </row>
+    <row r="104" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="150"/>
+      <c r="B104" s="100"/>
+      <c r="C104" s="101"/>
+      <c r="D104" s="101"/>
+      <c r="E104" s="123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="105"/>
+    </row>
+    <row r="105" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="150"/>
+      <c r="B105" s="100"/>
+      <c r="C105" s="101"/>
+      <c r="D105" s="101"/>
       <c r="E105" s="123">
-        <f t="shared" ref="E105:E118" si="6">IF(AND(C105&gt;0,D105&gt;0), D105-C105, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F105" s="104"/>
-    </row>
-    <row r="106" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="149"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="105"/>
+    </row>
+    <row r="106" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="150"/>
       <c r="B106" s="100"/>
       <c r="C106" s="101"/>
       <c r="D106" s="101"/>
-      <c r="E106" s="124">
-        <f t="shared" si="6"/>
+      <c r="E106" s="123">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F106" s="105"/>
     </row>
     <row r="107" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="149"/>
+      <c r="A107" s="150"/>
       <c r="B107" s="100"/>
       <c r="C107" s="101"/>
       <c r="D107" s="101"/>
       <c r="E107" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F107" s="105"/>
     </row>
     <row r="108" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="149"/>
+      <c r="A108" s="150"/>
       <c r="B108" s="100"/>
       <c r="C108" s="101"/>
       <c r="D108" s="101"/>
       <c r="E108" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F108" s="105"/>
     </row>
-    <row r="109" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="149"/>
-      <c r="B109" s="100"/>
-      <c r="C109" s="101"/>
-      <c r="D109" s="101"/>
-      <c r="E109" s="123">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F109" s="105"/>
-    </row>
-    <row r="110" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="149"/>
-      <c r="B110" s="100"/>
-      <c r="C110" s="101"/>
-      <c r="D110" s="101"/>
-      <c r="E110" s="123">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F110" s="105"/>
-    </row>
-    <row r="111" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="149"/>
-      <c r="B111" s="100"/>
-      <c r="C111" s="101"/>
-      <c r="D111" s="101"/>
-      <c r="E111" s="123">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F111" s="105"/>
-    </row>
-    <row r="112" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="149"/>
-      <c r="B112" s="100"/>
-      <c r="C112" s="101"/>
-      <c r="D112" s="101"/>
-      <c r="E112" s="123">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F112" s="105"/>
-    </row>
-    <row r="113" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="149"/>
-      <c r="B113" s="100"/>
-      <c r="C113" s="101"/>
-      <c r="D113" s="101"/>
+    <row r="109" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="150"/>
+      <c r="B109" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="C109" s="99"/>
+      <c r="D109" s="99"/>
+      <c r="E109" s="125">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F109" s="104"/>
+    </row>
+    <row r="110" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="117">
+        <v>5</v>
+      </c>
+      <c r="B110" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C110" s="103">
+        <f>C109-C96</f>
+        <v>0</v>
+      </c>
+      <c r="D110" s="103">
+        <f>D109-D96</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="126">
+        <f>E109-E96</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="108"/>
+      <c r="G110" s="112">
+        <f>E110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="149" t="s">
+        <v>174</v>
+      </c>
+      <c r="B112" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C112" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" s="115" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="150"/>
+      <c r="B113" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" s="99"/>
+      <c r="D113" s="99"/>
       <c r="E113" s="123">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F113" s="105"/>
-    </row>
-    <row r="114" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="149"/>
+        <f t="shared" ref="E113:E126" si="6">IF(AND(C113&gt;0,D113&gt;0), D113-C113, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="104"/>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="150"/>
       <c r="B114" s="100"/>
       <c r="C114" s="101"/>
       <c r="D114" s="101"/>
-      <c r="E114" s="123">
+      <c r="E114" s="124">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F114" s="105"/>
     </row>
     <row r="115" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="149"/>
+      <c r="A115" s="150"/>
       <c r="B115" s="100"/>
       <c r="C115" s="101"/>
       <c r="D115" s="101"/>
@@ -3861,7 +3947,7 @@
       <c r="F115" s="105"/>
     </row>
     <row r="116" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="149"/>
+      <c r="A116" s="150"/>
       <c r="B116" s="100"/>
       <c r="C116" s="101"/>
       <c r="D116" s="101"/>
@@ -3872,7 +3958,7 @@
       <c r="F116" s="105"/>
     </row>
     <row r="117" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="149"/>
+      <c r="A117" s="150"/>
       <c r="B117" s="100"/>
       <c r="C117" s="101"/>
       <c r="D117" s="101"/>
@@ -3882,178 +3968,178 @@
       </c>
       <c r="F117" s="105"/>
     </row>
-    <row r="118" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="149"/>
-      <c r="B118" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="C118" s="99"/>
-      <c r="D118" s="99"/>
-      <c r="E118" s="125">
+    <row r="118" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="150"/>
+      <c r="B118" s="100"/>
+      <c r="C118" s="101"/>
+      <c r="D118" s="101"/>
+      <c r="E118" s="123">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F118" s="104"/>
-    </row>
-    <row r="119" spans="1:7" ht="16.5" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="116">
-        <v>6</v>
-      </c>
-      <c r="B119" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C119" s="103">
-        <f>C118-C105</f>
-        <v>0</v>
-      </c>
-      <c r="D119" s="103">
-        <f>D118-D105</f>
-        <v>0</v>
-      </c>
-      <c r="E119" s="103">
-        <f>E118-E105</f>
-        <v>0</v>
-      </c>
-      <c r="F119" s="107"/>
-      <c r="G119" s="112">
-        <f>E119</f>
-        <v>0</v>
-      </c>
+      <c r="F118" s="105"/>
+    </row>
+    <row r="119" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="150"/>
+      <c r="B119" s="100"/>
+      <c r="C119" s="101"/>
+      <c r="D119" s="101"/>
+      <c r="E119" s="123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F119" s="105"/>
+    </row>
+    <row r="120" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="150"/>
+      <c r="B120" s="100"/>
+      <c r="C120" s="101"/>
+      <c r="D120" s="101"/>
+      <c r="E120" s="123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F120" s="105"/>
     </row>
     <row r="121" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="150" t="s">
-        <v>175</v>
-      </c>
-      <c r="B121" s="109" t="s">
-        <v>182</v>
-      </c>
-      <c r="C121" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="D121" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="E121" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="F121" s="111" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="149"/>
-      <c r="B122" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="C122" s="99"/>
-      <c r="D122" s="99"/>
+      <c r="A121" s="150"/>
+      <c r="B121" s="100"/>
+      <c r="C121" s="101"/>
+      <c r="D121" s="101"/>
+      <c r="E121" s="123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F121" s="105"/>
+    </row>
+    <row r="122" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="150"/>
+      <c r="B122" s="100"/>
+      <c r="C122" s="101"/>
+      <c r="D122" s="101"/>
       <c r="E122" s="123">
-        <f t="shared" ref="E122:E135" si="7">IF(AND(C122&gt;0,D122&gt;0), D122-C122, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F122" s="104"/>
-    </row>
-    <row r="123" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="149"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F122" s="105"/>
+    </row>
+    <row r="123" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="150"/>
       <c r="B123" s="100"/>
       <c r="C123" s="101"/>
       <c r="D123" s="101"/>
-      <c r="E123" s="124">
-        <f t="shared" si="7"/>
+      <c r="E123" s="123">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F123" s="105"/>
     </row>
     <row r="124" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="149"/>
+      <c r="A124" s="150"/>
       <c r="B124" s="100"/>
       <c r="C124" s="101"/>
       <c r="D124" s="101"/>
       <c r="E124" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F124" s="105"/>
     </row>
     <row r="125" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="149"/>
+      <c r="A125" s="150"/>
       <c r="B125" s="100"/>
       <c r="C125" s="101"/>
       <c r="D125" s="101"/>
       <c r="E125" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F125" s="105"/>
     </row>
-    <row r="126" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="149"/>
-      <c r="B126" s="100"/>
-      <c r="C126" s="101"/>
-      <c r="D126" s="101"/>
-      <c r="E126" s="123">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F126" s="105"/>
-    </row>
-    <row r="127" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="149"/>
-      <c r="B127" s="100"/>
-      <c r="C127" s="101"/>
-      <c r="D127" s="101"/>
-      <c r="E127" s="123">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F127" s="105"/>
-    </row>
-    <row r="128" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="149"/>
-      <c r="B128" s="100"/>
-      <c r="C128" s="101"/>
-      <c r="D128" s="101"/>
-      <c r="E128" s="123">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F128" s="105"/>
+    <row r="126" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="150"/>
+      <c r="B126" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="C126" s="99"/>
+      <c r="D126" s="99"/>
+      <c r="E126" s="125">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F126" s="104"/>
+    </row>
+    <row r="127" spans="1:7" ht="16.5" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="116">
+        <v>6</v>
+      </c>
+      <c r="B127" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C127" s="103">
+        <f>C126-C113</f>
+        <v>0</v>
+      </c>
+      <c r="D127" s="103">
+        <f>D126-D113</f>
+        <v>0</v>
+      </c>
+      <c r="E127" s="103">
+        <f>E126-E113</f>
+        <v>0</v>
+      </c>
+      <c r="F127" s="107"/>
+      <c r="G127" s="112">
+        <f>E127</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="149"/>
-      <c r="B129" s="100"/>
-      <c r="C129" s="101"/>
-      <c r="D129" s="101"/>
-      <c r="E129" s="123">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F129" s="105"/>
-    </row>
-    <row r="130" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="149"/>
-      <c r="B130" s="100"/>
-      <c r="C130" s="101"/>
-      <c r="D130" s="101"/>
+      <c r="A129" s="151" t="s">
+        <v>175</v>
+      </c>
+      <c r="B129" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="C129" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D129" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="E129" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" s="111" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="150"/>
+      <c r="B130" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C130" s="99"/>
+      <c r="D130" s="99"/>
       <c r="E130" s="123">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F130" s="105"/>
-    </row>
-    <row r="131" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="149"/>
+        <f t="shared" ref="E130:E143" si="7">IF(AND(C130&gt;0,D130&gt;0), D130-C130, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F130" s="104"/>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="150"/>
       <c r="B131" s="100"/>
       <c r="C131" s="101"/>
       <c r="D131" s="101"/>
-      <c r="E131" s="123">
+      <c r="E131" s="124">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F131" s="105"/>
     </row>
     <row r="132" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="149"/>
+      <c r="A132" s="150"/>
       <c r="B132" s="100"/>
       <c r="C132" s="101"/>
       <c r="D132" s="101"/>
@@ -4064,7 +4150,7 @@
       <c r="F132" s="105"/>
     </row>
     <row r="133" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="149"/>
+      <c r="A133" s="150"/>
       <c r="B133" s="100"/>
       <c r="C133" s="101"/>
       <c r="D133" s="101"/>
@@ -4075,7 +4161,7 @@
       <c r="F133" s="105"/>
     </row>
     <row r="134" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="149"/>
+      <c r="A134" s="150"/>
       <c r="B134" s="100"/>
       <c r="C134" s="101"/>
       <c r="D134" s="101"/>
@@ -4085,178 +4171,178 @@
       </c>
       <c r="F134" s="105"/>
     </row>
-    <row r="135" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="149"/>
-      <c r="B135" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="C135" s="99"/>
-      <c r="D135" s="99"/>
-      <c r="E135" s="125">
+    <row r="135" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="150"/>
+      <c r="B135" s="100"/>
+      <c r="C135" s="101"/>
+      <c r="D135" s="101"/>
+      <c r="E135" s="123">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F135" s="104"/>
-    </row>
-    <row r="136" spans="1:7" ht="16.5" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="117">
-        <v>7</v>
-      </c>
-      <c r="B136" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C136" s="103">
-        <f>C135-C122</f>
-        <v>0</v>
-      </c>
-      <c r="D136" s="103">
-        <f>D135-D122</f>
-        <v>0</v>
-      </c>
-      <c r="E136" s="103">
-        <f>E135-E122</f>
-        <v>0</v>
-      </c>
-      <c r="F136" s="108"/>
-      <c r="G136" s="112">
-        <f>E136</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A138" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="B138" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="C138" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="D138" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E138" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="F138" s="115" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="149"/>
-      <c r="B139" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="C139" s="99"/>
-      <c r="D139" s="99"/>
+      <c r="F135" s="105"/>
+    </row>
+    <row r="136" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="150"/>
+      <c r="B136" s="100"/>
+      <c r="C136" s="101"/>
+      <c r="D136" s="101"/>
+      <c r="E136" s="123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F136" s="105"/>
+    </row>
+    <row r="137" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="150"/>
+      <c r="B137" s="100"/>
+      <c r="C137" s="101"/>
+      <c r="D137" s="101"/>
+      <c r="E137" s="123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F137" s="105"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="150"/>
+      <c r="B138" s="100"/>
+      <c r="C138" s="101"/>
+      <c r="D138" s="101"/>
+      <c r="E138" s="123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F138" s="105"/>
+    </row>
+    <row r="139" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="150"/>
+      <c r="B139" s="100"/>
+      <c r="C139" s="101"/>
+      <c r="D139" s="101"/>
       <c r="E139" s="123">
-        <f t="shared" ref="E139:E152" si="8">IF(AND(C139&gt;0,D139&gt;0), D139-C139, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F139" s="104"/>
-    </row>
-    <row r="140" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="149"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F139" s="105"/>
+    </row>
+    <row r="140" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="150"/>
       <c r="B140" s="100"/>
       <c r="C140" s="101"/>
       <c r="D140" s="101"/>
-      <c r="E140" s="124">
-        <f t="shared" si="8"/>
+      <c r="E140" s="123">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F140" s="105"/>
     </row>
-    <row r="141" spans="1:7" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A141" s="149"/>
+    <row r="141" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="150"/>
       <c r="B141" s="100"/>
       <c r="C141" s="101"/>
       <c r="D141" s="101"/>
       <c r="E141" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F141" s="105"/>
     </row>
-    <row r="142" spans="1:7" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A142" s="149"/>
+    <row r="142" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="150"/>
       <c r="B142" s="100"/>
       <c r="C142" s="101"/>
       <c r="D142" s="101"/>
       <c r="E142" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F142" s="105"/>
     </row>
-    <row r="143" spans="1:7" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A143" s="149"/>
-      <c r="B143" s="100"/>
-      <c r="C143" s="101"/>
-      <c r="D143" s="101"/>
-      <c r="E143" s="123">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F143" s="105"/>
-    </row>
-    <row r="144" spans="1:7" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A144" s="149"/>
-      <c r="B144" s="100"/>
-      <c r="C144" s="101"/>
-      <c r="D144" s="101"/>
-      <c r="E144" s="123">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F144" s="105"/>
-    </row>
-    <row r="145" spans="1:7" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A145" s="149"/>
-      <c r="B145" s="100"/>
-      <c r="C145" s="101"/>
-      <c r="D145" s="101"/>
-      <c r="E145" s="123">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F145" s="105"/>
-    </row>
-    <row r="146" spans="1:7" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A146" s="149"/>
-      <c r="B146" s="100"/>
-      <c r="C146" s="101"/>
-      <c r="D146" s="101"/>
-      <c r="E146" s="123">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F146" s="105"/>
-    </row>
-    <row r="147" spans="1:7" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A147" s="149"/>
-      <c r="B147" s="100"/>
-      <c r="C147" s="101"/>
-      <c r="D147" s="101"/>
+    <row r="143" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="150"/>
+      <c r="B143" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="C143" s="99"/>
+      <c r="D143" s="99"/>
+      <c r="E143" s="125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F143" s="104"/>
+    </row>
+    <row r="144" spans="1:7" ht="16.5" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="117">
+        <v>7</v>
+      </c>
+      <c r="B144" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C144" s="103">
+        <f>C143-C130</f>
+        <v>0</v>
+      </c>
+      <c r="D144" s="103">
+        <f>D143-D130</f>
+        <v>0</v>
+      </c>
+      <c r="E144" s="103">
+        <f>E143-E130</f>
+        <v>0</v>
+      </c>
+      <c r="F144" s="108"/>
+      <c r="G144" s="112">
+        <f>E144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A146" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="B146" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C146" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D146" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E146" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F146" s="115" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="150"/>
+      <c r="B147" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C147" s="99"/>
+      <c r="D147" s="99"/>
       <c r="E147" s="123">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F147" s="105"/>
-    </row>
-    <row r="148" spans="1:7" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A148" s="149"/>
+        <f t="shared" ref="E147:E160" si="8">IF(AND(C147&gt;0,D147&gt;0), D147-C147, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F147" s="104"/>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="150"/>
       <c r="B148" s="100"/>
       <c r="C148" s="101"/>
       <c r="D148" s="101"/>
-      <c r="E148" s="123">
+      <c r="E148" s="124">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F148" s="105"/>
     </row>
-    <row r="149" spans="1:7" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A149" s="149"/>
+    <row r="149" spans="1:6" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A149" s="150"/>
       <c r="B149" s="100"/>
       <c r="C149" s="101"/>
       <c r="D149" s="101"/>
@@ -4266,8 +4352,8 @@
       </c>
       <c r="F149" s="105"/>
     </row>
-    <row r="150" spans="1:7" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A150" s="149"/>
+    <row r="150" spans="1:6" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A150" s="150"/>
       <c r="B150" s="100"/>
       <c r="C150" s="101"/>
       <c r="D150" s="101"/>
@@ -4277,8 +4363,8 @@
       </c>
       <c r="F150" s="105"/>
     </row>
-    <row r="151" spans="1:7" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A151" s="149"/>
+    <row r="151" spans="1:6" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A151" s="150"/>
       <c r="B151" s="100"/>
       <c r="C151" s="101"/>
       <c r="D151" s="101"/>
@@ -4288,59 +4374,147 @@
       </c>
       <c r="F151" s="105"/>
     </row>
-    <row r="152" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="149"/>
-      <c r="B152" s="98" t="s">
+    <row r="152" spans="1:6" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A152" s="150"/>
+      <c r="B152" s="100"/>
+      <c r="C152" s="101"/>
+      <c r="D152" s="101"/>
+      <c r="E152" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F152" s="105"/>
+    </row>
+    <row r="153" spans="1:6" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A153" s="150"/>
+      <c r="B153" s="100"/>
+      <c r="C153" s="101"/>
+      <c r="D153" s="101"/>
+      <c r="E153" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F153" s="105"/>
+    </row>
+    <row r="154" spans="1:6" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A154" s="150"/>
+      <c r="B154" s="100"/>
+      <c r="C154" s="101"/>
+      <c r="D154" s="101"/>
+      <c r="E154" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F154" s="105"/>
+    </row>
+    <row r="155" spans="1:6" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A155" s="150"/>
+      <c r="B155" s="100"/>
+      <c r="C155" s="101"/>
+      <c r="D155" s="101"/>
+      <c r="E155" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F155" s="105"/>
+    </row>
+    <row r="156" spans="1:6" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A156" s="150"/>
+      <c r="B156" s="100"/>
+      <c r="C156" s="101"/>
+      <c r="D156" s="101"/>
+      <c r="E156" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F156" s="105"/>
+    </row>
+    <row r="157" spans="1:6" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A157" s="150"/>
+      <c r="B157" s="100"/>
+      <c r="C157" s="101"/>
+      <c r="D157" s="101"/>
+      <c r="E157" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F157" s="105"/>
+    </row>
+    <row r="158" spans="1:6" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A158" s="150"/>
+      <c r="B158" s="100"/>
+      <c r="C158" s="101"/>
+      <c r="D158" s="101"/>
+      <c r="E158" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F158" s="105"/>
+    </row>
+    <row r="159" spans="1:6" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A159" s="150"/>
+      <c r="B159" s="100"/>
+      <c r="C159" s="101"/>
+      <c r="D159" s="101"/>
+      <c r="E159" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F159" s="105"/>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="150"/>
+      <c r="B160" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="C152" s="99"/>
-      <c r="D152" s="99"/>
-      <c r="E152" s="125">
+      <c r="C160" s="99"/>
+      <c r="D160" s="99"/>
+      <c r="E160" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F152" s="104"/>
-    </row>
-    <row r="153" spans="1:7" ht="16.5" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="116">
+      <c r="F160" s="104"/>
+    </row>
+    <row r="161" spans="1:7" ht="16.5" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="116">
         <v>8</v>
       </c>
-      <c r="B153" s="102" t="s">
+      <c r="B161" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="C153" s="103">
-        <f>C152-C139</f>
-        <v>0</v>
-      </c>
-      <c r="D153" s="103">
-        <f>D152-D139</f>
-        <v>0</v>
-      </c>
-      <c r="E153" s="103">
-        <f>E152-E139</f>
-        <v>0</v>
-      </c>
-      <c r="F153" s="107"/>
-      <c r="G153" s="112">
-        <f>E153</f>
+      <c r="C161" s="103">
+        <f>C160-C147</f>
+        <v>0</v>
+      </c>
+      <c r="D161" s="103">
+        <f>D160-D147</f>
+        <v>0</v>
+      </c>
+      <c r="E161" s="103">
+        <f>E160-E147</f>
+        <v>0</v>
+      </c>
+      <c r="F161" s="107"/>
+      <c r="G161" s="112">
+        <f>E161</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A138:A152"/>
-    <mergeCell ref="A104:A118"/>
-    <mergeCell ref="A70:A84"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A87:A101"/>
-    <mergeCell ref="A36:A50"/>
-    <mergeCell ref="A53:A67"/>
+    <mergeCell ref="A44:A58"/>
+    <mergeCell ref="A61:A75"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="A19:A41"/>
+    <mergeCell ref="A146:A160"/>
+    <mergeCell ref="A112:A126"/>
+    <mergeCell ref="A78:A92"/>
+    <mergeCell ref="A129:A143"/>
+    <mergeCell ref="A95:A109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4372,13 +4546,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
       <c r="F1" s="7"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4408,18 +4582,18 @@
         <v>8</v>
       </c>
       <c r="B3" s="36"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
     </row>
     <row r="4" spans="1:8" ht="18" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="87"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -4571,9 +4745,9 @@
         <v>9</v>
       </c>
       <c r="B21" s="90"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
     </row>
     <row r="22" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A22" s="47">
@@ -4724,9 +4898,9 @@
         <v>10</v>
       </c>
       <c r="B38" s="87"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="159"/>
+      <c r="E38" s="159"/>
     </row>
     <row r="39" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A39" s="47">
@@ -4877,9 +5051,9 @@
         <v>11</v>
       </c>
       <c r="B55" s="87"/>
-      <c r="C55" s="160"/>
-      <c r="D55" s="161"/>
-      <c r="E55" s="161"/>
+      <c r="C55" s="158"/>
+      <c r="D55" s="159"/>
+      <c r="E55" s="159"/>
     </row>
     <row r="56" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A56" s="47">
@@ -5030,9 +5204,9 @@
         <v>12</v>
       </c>
       <c r="B72" s="87"/>
-      <c r="C72" s="160"/>
-      <c r="D72" s="161"/>
-      <c r="E72" s="161"/>
+      <c r="C72" s="158"/>
+      <c r="D72" s="159"/>
+      <c r="E72" s="159"/>
     </row>
     <row r="73" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A73" s="47">
@@ -5183,9 +5357,9 @@
         <v>13</v>
       </c>
       <c r="B89" s="87"/>
-      <c r="C89" s="160"/>
-      <c r="D89" s="161"/>
-      <c r="E89" s="161"/>
+      <c r="C89" s="158"/>
+      <c r="D89" s="159"/>
+      <c r="E89" s="159"/>
     </row>
     <row r="90" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A90" s="47">
@@ -5336,9 +5510,9 @@
         <v>14</v>
       </c>
       <c r="B106" s="87"/>
-      <c r="C106" s="160"/>
-      <c r="D106" s="161"/>
-      <c r="E106" s="161"/>
+      <c r="C106" s="158"/>
+      <c r="D106" s="159"/>
+      <c r="E106" s="159"/>
     </row>
     <row r="107" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A107" s="47">
@@ -5489,9 +5663,9 @@
         <v>15</v>
       </c>
       <c r="B123" s="87"/>
-      <c r="C123" s="160"/>
-      <c r="D123" s="161"/>
-      <c r="E123" s="161"/>
+      <c r="C123" s="158"/>
+      <c r="D123" s="159"/>
+      <c r="E123" s="159"/>
     </row>
     <row r="124" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A124" s="47">
@@ -5642,9 +5816,9 @@
         <v>16</v>
       </c>
       <c r="B140" s="87"/>
-      <c r="C140" s="160"/>
-      <c r="D140" s="161"/>
-      <c r="E140" s="161"/>
+      <c r="C140" s="158"/>
+      <c r="D140" s="159"/>
+      <c r="E140" s="159"/>
     </row>
     <row r="141" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A141" s="47">
@@ -5795,9 +5969,9 @@
         <v>17</v>
       </c>
       <c r="B157" s="87"/>
-      <c r="C157" s="160"/>
-      <c r="D157" s="161"/>
-      <c r="E157" s="161"/>
+      <c r="C157" s="158"/>
+      <c r="D157" s="159"/>
+      <c r="E157" s="159"/>
     </row>
     <row r="158" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A158" s="47">
@@ -5948,9 +6122,9 @@
         <v>18</v>
       </c>
       <c r="B174" s="87"/>
-      <c r="C174" s="160"/>
-      <c r="D174" s="161"/>
-      <c r="E174" s="161"/>
+      <c r="C174" s="158"/>
+      <c r="D174" s="159"/>
+      <c r="E174" s="159"/>
     </row>
     <row r="175" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A175" s="47">
@@ -6101,9 +6275,9 @@
         <v>19</v>
       </c>
       <c r="B191" s="87"/>
-      <c r="C191" s="160"/>
-      <c r="D191" s="161"/>
-      <c r="E191" s="161"/>
+      <c r="C191" s="158"/>
+      <c r="D191" s="159"/>
+      <c r="E191" s="159"/>
     </row>
     <row r="192" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A192" s="47">
@@ -6254,9 +6428,9 @@
         <v>20</v>
       </c>
       <c r="B208" s="87"/>
-      <c r="C208" s="160"/>
-      <c r="D208" s="161"/>
-      <c r="E208" s="161"/>
+      <c r="C208" s="158"/>
+      <c r="D208" s="159"/>
+      <c r="E208" s="159"/>
     </row>
     <row r="209" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A209" s="47">
@@ -6407,9 +6581,9 @@
         <v>21</v>
       </c>
       <c r="B225" s="87"/>
-      <c r="C225" s="160"/>
-      <c r="D225" s="161"/>
-      <c r="E225" s="161"/>
+      <c r="C225" s="158"/>
+      <c r="D225" s="159"/>
+      <c r="E225" s="159"/>
     </row>
     <row r="226" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A226" s="47">
@@ -6560,9 +6734,9 @@
         <v>22</v>
       </c>
       <c r="B242" s="87"/>
-      <c r="C242" s="160"/>
-      <c r="D242" s="161"/>
-      <c r="E242" s="161"/>
+      <c r="C242" s="158"/>
+      <c r="D242" s="159"/>
+      <c r="E242" s="159"/>
     </row>
     <row r="243" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A243" s="47">
@@ -6713,9 +6887,9 @@
         <v>23</v>
       </c>
       <c r="B259" s="87"/>
-      <c r="C259" s="160"/>
-      <c r="D259" s="161"/>
-      <c r="E259" s="161"/>
+      <c r="C259" s="158"/>
+      <c r="D259" s="159"/>
+      <c r="E259" s="159"/>
     </row>
     <row r="260" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A260" s="47">
@@ -6866,18 +7040,18 @@
         <v>24</v>
       </c>
       <c r="B276" s="37"/>
-      <c r="C276" s="164"/>
-      <c r="D276" s="165"/>
-      <c r="E276" s="165"/>
+      <c r="C276" s="174"/>
+      <c r="D276" s="175"/>
+      <c r="E276" s="175"/>
     </row>
     <row r="277" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A277" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B277" s="87"/>
-      <c r="C277" s="160"/>
-      <c r="D277" s="161"/>
-      <c r="E277" s="161"/>
+      <c r="C277" s="158"/>
+      <c r="D277" s="159"/>
+      <c r="E277" s="159"/>
     </row>
     <row r="278" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A278" s="52">
@@ -7028,9 +7202,9 @@
         <v>26</v>
       </c>
       <c r="B294" s="90"/>
-      <c r="C294" s="162"/>
-      <c r="D294" s="163"/>
-      <c r="E294" s="163"/>
+      <c r="C294" s="160"/>
+      <c r="D294" s="161"/>
+      <c r="E294" s="161"/>
     </row>
     <row r="295" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A295" s="52">
@@ -7181,9 +7355,9 @@
         <v>27</v>
       </c>
       <c r="B311" s="87"/>
-      <c r="C311" s="160"/>
-      <c r="D311" s="161"/>
-      <c r="E311" s="161"/>
+      <c r="C311" s="158"/>
+      <c r="D311" s="159"/>
+      <c r="E311" s="159"/>
     </row>
     <row r="312" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A312" s="52">
@@ -7334,9 +7508,9 @@
         <v>28</v>
       </c>
       <c r="B328" s="87"/>
-      <c r="C328" s="160"/>
-      <c r="D328" s="161"/>
-      <c r="E328" s="161"/>
+      <c r="C328" s="158"/>
+      <c r="D328" s="159"/>
+      <c r="E328" s="159"/>
     </row>
     <row r="329" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A329" s="52">
@@ -7487,9 +7661,9 @@
         <v>29</v>
       </c>
       <c r="B345" s="87"/>
-      <c r="C345" s="160"/>
-      <c r="D345" s="161"/>
-      <c r="E345" s="161"/>
+      <c r="C345" s="158"/>
+      <c r="D345" s="159"/>
+      <c r="E345" s="159"/>
     </row>
     <row r="346" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A346" s="52">
@@ -7640,9 +7814,9 @@
         <v>30</v>
       </c>
       <c r="B362" s="87"/>
-      <c r="C362" s="160"/>
-      <c r="D362" s="161"/>
-      <c r="E362" s="161"/>
+      <c r="C362" s="158"/>
+      <c r="D362" s="159"/>
+      <c r="E362" s="159"/>
     </row>
     <row r="363" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A363" s="52">
@@ -7793,9 +7967,9 @@
         <v>31</v>
       </c>
       <c r="B379" s="87"/>
-      <c r="C379" s="160"/>
-      <c r="D379" s="161"/>
-      <c r="E379" s="161"/>
+      <c r="C379" s="158"/>
+      <c r="D379" s="159"/>
+      <c r="E379" s="159"/>
     </row>
     <row r="380" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A380" s="52">
@@ -7946,9 +8120,9 @@
         <v>32</v>
       </c>
       <c r="B396" s="87"/>
-      <c r="C396" s="160"/>
-      <c r="D396" s="161"/>
-      <c r="E396" s="161"/>
+      <c r="C396" s="158"/>
+      <c r="D396" s="159"/>
+      <c r="E396" s="159"/>
     </row>
     <row r="397" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A397" s="52">
@@ -8099,9 +8273,9 @@
         <v>33</v>
       </c>
       <c r="B413" s="87"/>
-      <c r="C413" s="160"/>
-      <c r="D413" s="161"/>
-      <c r="E413" s="161"/>
+      <c r="C413" s="158"/>
+      <c r="D413" s="159"/>
+      <c r="E413" s="159"/>
     </row>
     <row r="414" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A414" s="52">
@@ -8252,9 +8426,9 @@
         <v>34</v>
       </c>
       <c r="B430" s="87"/>
-      <c r="C430" s="160"/>
-      <c r="D430" s="161"/>
-      <c r="E430" s="161"/>
+      <c r="C430" s="158"/>
+      <c r="D430" s="159"/>
+      <c r="E430" s="159"/>
     </row>
     <row r="431" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A431" s="52">
@@ -8405,9 +8579,9 @@
         <v>35</v>
       </c>
       <c r="B447" s="87"/>
-      <c r="C447" s="160"/>
-      <c r="D447" s="161"/>
-      <c r="E447" s="161"/>
+      <c r="C447" s="158"/>
+      <c r="D447" s="159"/>
+      <c r="E447" s="159"/>
     </row>
     <row r="448" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A448" s="52">
@@ -8558,9 +8732,9 @@
         <v>36</v>
       </c>
       <c r="B464" s="87"/>
-      <c r="C464" s="160"/>
-      <c r="D464" s="161"/>
-      <c r="E464" s="161"/>
+      <c r="C464" s="158"/>
+      <c r="D464" s="159"/>
+      <c r="E464" s="159"/>
     </row>
     <row r="465" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A465" s="52">
@@ -8711,9 +8885,9 @@
         <v>37</v>
       </c>
       <c r="B481" s="87"/>
-      <c r="C481" s="160"/>
-      <c r="D481" s="161"/>
-      <c r="E481" s="161"/>
+      <c r="C481" s="158"/>
+      <c r="D481" s="159"/>
+      <c r="E481" s="159"/>
     </row>
     <row r="482" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A482" s="52">
@@ -8864,9 +9038,9 @@
         <v>38</v>
       </c>
       <c r="B498" s="87"/>
-      <c r="C498" s="160"/>
-      <c r="D498" s="161"/>
-      <c r="E498" s="161"/>
+      <c r="C498" s="158"/>
+      <c r="D498" s="159"/>
+      <c r="E498" s="159"/>
     </row>
     <row r="499" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A499" s="52">
@@ -9017,9 +9191,9 @@
         <v>39</v>
       </c>
       <c r="B515" s="87"/>
-      <c r="C515" s="160"/>
-      <c r="D515" s="161"/>
-      <c r="E515" s="161"/>
+      <c r="C515" s="158"/>
+      <c r="D515" s="159"/>
+      <c r="E515" s="159"/>
     </row>
     <row r="516" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A516" s="52">
@@ -9170,9 +9344,9 @@
         <v>40</v>
       </c>
       <c r="B532" s="87"/>
-      <c r="C532" s="160"/>
-      <c r="D532" s="161"/>
-      <c r="E532" s="161"/>
+      <c r="C532" s="158"/>
+      <c r="D532" s="159"/>
+      <c r="E532" s="159"/>
     </row>
     <row r="533" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A533" s="55">
@@ -9323,18 +9497,18 @@
         <v>50</v>
       </c>
       <c r="B549" s="38"/>
-      <c r="C549" s="166"/>
-      <c r="D549" s="167"/>
-      <c r="E549" s="167"/>
+      <c r="C549" s="172"/>
+      <c r="D549" s="173"/>
+      <c r="E549" s="173"/>
     </row>
     <row r="550" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A550" s="58" t="s">
         <v>51</v>
       </c>
       <c r="B550" s="87"/>
-      <c r="C550" s="160"/>
-      <c r="D550" s="161"/>
-      <c r="E550" s="161"/>
+      <c r="C550" s="158"/>
+      <c r="D550" s="159"/>
+      <c r="E550" s="159"/>
     </row>
     <row r="551" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A551" s="59">
@@ -9485,9 +9659,9 @@
         <v>52</v>
       </c>
       <c r="B567" s="90"/>
-      <c r="C567" s="162"/>
-      <c r="D567" s="163"/>
-      <c r="E567" s="163"/>
+      <c r="C567" s="160"/>
+      <c r="D567" s="161"/>
+      <c r="E567" s="161"/>
     </row>
     <row r="568" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A568" s="59">
@@ -9638,9 +9812,9 @@
         <v>53</v>
       </c>
       <c r="B584" s="87"/>
-      <c r="C584" s="160"/>
-      <c r="D584" s="161"/>
-      <c r="E584" s="161"/>
+      <c r="C584" s="158"/>
+      <c r="D584" s="159"/>
+      <c r="E584" s="159"/>
     </row>
     <row r="585" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A585" s="59">
@@ -9791,9 +9965,9 @@
         <v>54</v>
       </c>
       <c r="B601" s="87"/>
-      <c r="C601" s="160"/>
-      <c r="D601" s="161"/>
-      <c r="E601" s="161"/>
+      <c r="C601" s="158"/>
+      <c r="D601" s="159"/>
+      <c r="E601" s="159"/>
     </row>
     <row r="602" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A602" s="59">
@@ -9944,9 +10118,9 @@
         <v>55</v>
       </c>
       <c r="B618" s="87"/>
-      <c r="C618" s="160"/>
-      <c r="D618" s="161"/>
-      <c r="E618" s="161"/>
+      <c r="C618" s="158"/>
+      <c r="D618" s="159"/>
+      <c r="E618" s="159"/>
     </row>
     <row r="619" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A619" s="59">
@@ -10097,9 +10271,9 @@
         <v>56</v>
       </c>
       <c r="B635" s="87"/>
-      <c r="C635" s="160"/>
-      <c r="D635" s="161"/>
-      <c r="E635" s="161"/>
+      <c r="C635" s="158"/>
+      <c r="D635" s="159"/>
+      <c r="E635" s="159"/>
     </row>
     <row r="636" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A636" s="59">
@@ -10250,9 +10424,9 @@
         <v>57</v>
       </c>
       <c r="B652" s="87"/>
-      <c r="C652" s="160"/>
-      <c r="D652" s="161"/>
-      <c r="E652" s="161"/>
+      <c r="C652" s="158"/>
+      <c r="D652" s="159"/>
+      <c r="E652" s="159"/>
     </row>
     <row r="653" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A653" s="59">
@@ -10403,9 +10577,9 @@
         <v>58</v>
       </c>
       <c r="B669" s="87"/>
-      <c r="C669" s="160"/>
-      <c r="D669" s="161"/>
-      <c r="E669" s="161"/>
+      <c r="C669" s="158"/>
+      <c r="D669" s="159"/>
+      <c r="E669" s="159"/>
     </row>
     <row r="670" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A670" s="59">
@@ -10556,9 +10730,9 @@
         <v>59</v>
       </c>
       <c r="B686" s="87"/>
-      <c r="C686" s="160"/>
-      <c r="D686" s="161"/>
-      <c r="E686" s="161"/>
+      <c r="C686" s="158"/>
+      <c r="D686" s="159"/>
+      <c r="E686" s="159"/>
     </row>
     <row r="687" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A687" s="59">
@@ -10709,9 +10883,9 @@
         <v>60</v>
       </c>
       <c r="B703" s="87"/>
-      <c r="C703" s="160"/>
-      <c r="D703" s="161"/>
-      <c r="E703" s="161"/>
+      <c r="C703" s="158"/>
+      <c r="D703" s="159"/>
+      <c r="E703" s="159"/>
     </row>
     <row r="704" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A704" s="59">
@@ -10862,9 +11036,9 @@
         <v>61</v>
       </c>
       <c r="B720" s="87"/>
-      <c r="C720" s="160"/>
-      <c r="D720" s="161"/>
-      <c r="E720" s="161"/>
+      <c r="C720" s="158"/>
+      <c r="D720" s="159"/>
+      <c r="E720" s="159"/>
     </row>
     <row r="721" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A721" s="59">
@@ -11015,9 +11189,9 @@
         <v>62</v>
       </c>
       <c r="B737" s="87"/>
-      <c r="C737" s="160"/>
-      <c r="D737" s="161"/>
-      <c r="E737" s="161"/>
+      <c r="C737" s="158"/>
+      <c r="D737" s="159"/>
+      <c r="E737" s="159"/>
     </row>
     <row r="738" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A738" s="59">
@@ -11168,9 +11342,9 @@
         <v>63</v>
       </c>
       <c r="B754" s="87"/>
-      <c r="C754" s="160"/>
-      <c r="D754" s="161"/>
-      <c r="E754" s="161"/>
+      <c r="C754" s="158"/>
+      <c r="D754" s="159"/>
+      <c r="E754" s="159"/>
     </row>
     <row r="755" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A755" s="59">
@@ -11321,9 +11495,9 @@
         <v>64</v>
       </c>
       <c r="B771" s="87"/>
-      <c r="C771" s="160"/>
-      <c r="D771" s="161"/>
-      <c r="E771" s="161"/>
+      <c r="C771" s="158"/>
+      <c r="D771" s="159"/>
+      <c r="E771" s="159"/>
     </row>
     <row r="772" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A772" s="59">
@@ -11474,9 +11648,9 @@
         <v>65</v>
       </c>
       <c r="B788" s="87"/>
-      <c r="C788" s="160"/>
-      <c r="D788" s="161"/>
-      <c r="E788" s="161"/>
+      <c r="C788" s="158"/>
+      <c r="D788" s="159"/>
+      <c r="E788" s="159"/>
     </row>
     <row r="789" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A789" s="59">
@@ -11627,9 +11801,9 @@
         <v>66</v>
       </c>
       <c r="B805" s="87"/>
-      <c r="C805" s="160"/>
-      <c r="D805" s="161"/>
-      <c r="E805" s="161"/>
+      <c r="C805" s="158"/>
+      <c r="D805" s="159"/>
+      <c r="E805" s="159"/>
     </row>
     <row r="806" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A806" s="59">
@@ -11780,18 +11954,18 @@
         <v>67</v>
       </c>
       <c r="B822" s="39"/>
-      <c r="C822" s="168"/>
-      <c r="D822" s="169"/>
-      <c r="E822" s="169"/>
+      <c r="C822" s="170"/>
+      <c r="D822" s="171"/>
+      <c r="E822" s="171"/>
     </row>
     <row r="823" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A823" s="63" t="s">
         <v>68</v>
       </c>
       <c r="B823" s="87"/>
-      <c r="C823" s="160"/>
-      <c r="D823" s="161"/>
-      <c r="E823" s="161"/>
+      <c r="C823" s="158"/>
+      <c r="D823" s="159"/>
+      <c r="E823" s="159"/>
     </row>
     <row r="824" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A824" s="64">
@@ -11942,9 +12116,9 @@
         <v>69</v>
       </c>
       <c r="B840" s="90"/>
-      <c r="C840" s="162"/>
-      <c r="D840" s="163"/>
-      <c r="E840" s="163"/>
+      <c r="C840" s="160"/>
+      <c r="D840" s="161"/>
+      <c r="E840" s="161"/>
     </row>
     <row r="841" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A841" s="64">
@@ -12095,9 +12269,9 @@
         <v>70</v>
       </c>
       <c r="B857" s="87"/>
-      <c r="C857" s="160"/>
-      <c r="D857" s="161"/>
-      <c r="E857" s="161"/>
+      <c r="C857" s="158"/>
+      <c r="D857" s="159"/>
+      <c r="E857" s="159"/>
     </row>
     <row r="858" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A858" s="64">
@@ -12248,9 +12422,9 @@
         <v>71</v>
       </c>
       <c r="B874" s="87"/>
-      <c r="C874" s="160"/>
-      <c r="D874" s="161"/>
-      <c r="E874" s="161"/>
+      <c r="C874" s="158"/>
+      <c r="D874" s="159"/>
+      <c r="E874" s="159"/>
     </row>
     <row r="875" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A875" s="64">
@@ -12401,9 +12575,9 @@
         <v>72</v>
       </c>
       <c r="B891" s="87"/>
-      <c r="C891" s="160"/>
-      <c r="D891" s="161"/>
-      <c r="E891" s="161"/>
+      <c r="C891" s="158"/>
+      <c r="D891" s="159"/>
+      <c r="E891" s="159"/>
     </row>
     <row r="892" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A892" s="64">
@@ -12554,9 +12728,9 @@
         <v>73</v>
       </c>
       <c r="B908" s="87"/>
-      <c r="C908" s="160"/>
-      <c r="D908" s="161"/>
-      <c r="E908" s="161"/>
+      <c r="C908" s="158"/>
+      <c r="D908" s="159"/>
+      <c r="E908" s="159"/>
     </row>
     <row r="909" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A909" s="64">
@@ -12707,9 +12881,9 @@
         <v>74</v>
       </c>
       <c r="B925" s="87"/>
-      <c r="C925" s="160"/>
-      <c r="D925" s="161"/>
-      <c r="E925" s="161"/>
+      <c r="C925" s="158"/>
+      <c r="D925" s="159"/>
+      <c r="E925" s="159"/>
     </row>
     <row r="926" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A926" s="64">
@@ -12860,9 +13034,9 @@
         <v>75</v>
       </c>
       <c r="B942" s="87"/>
-      <c r="C942" s="160"/>
-      <c r="D942" s="161"/>
-      <c r="E942" s="161"/>
+      <c r="C942" s="158"/>
+      <c r="D942" s="159"/>
+      <c r="E942" s="159"/>
     </row>
     <row r="943" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A943" s="64">
@@ -13013,9 +13187,9 @@
         <v>76</v>
       </c>
       <c r="B959" s="87"/>
-      <c r="C959" s="160"/>
-      <c r="D959" s="161"/>
-      <c r="E959" s="161"/>
+      <c r="C959" s="158"/>
+      <c r="D959" s="159"/>
+      <c r="E959" s="159"/>
     </row>
     <row r="960" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A960" s="64">
@@ -13166,9 +13340,9 @@
         <v>77</v>
       </c>
       <c r="B976" s="87"/>
-      <c r="C976" s="160"/>
-      <c r="D976" s="161"/>
-      <c r="E976" s="161"/>
+      <c r="C976" s="158"/>
+      <c r="D976" s="159"/>
+      <c r="E976" s="159"/>
     </row>
     <row r="977" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A977" s="64">
@@ -13319,9 +13493,9 @@
         <v>78</v>
       </c>
       <c r="B993" s="87"/>
-      <c r="C993" s="160"/>
-      <c r="D993" s="161"/>
-      <c r="E993" s="161"/>
+      <c r="C993" s="158"/>
+      <c r="D993" s="159"/>
+      <c r="E993" s="159"/>
     </row>
     <row r="994" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A994" s="64">
@@ -13472,9 +13646,9 @@
         <v>79</v>
       </c>
       <c r="B1010" s="87"/>
-      <c r="C1010" s="160"/>
-      <c r="D1010" s="161"/>
-      <c r="E1010" s="161"/>
+      <c r="C1010" s="158"/>
+      <c r="D1010" s="159"/>
+      <c r="E1010" s="159"/>
     </row>
     <row r="1011" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1011" s="64">
@@ -13625,9 +13799,9 @@
         <v>80</v>
       </c>
       <c r="B1027" s="87"/>
-      <c r="C1027" s="160"/>
-      <c r="D1027" s="161"/>
-      <c r="E1027" s="161"/>
+      <c r="C1027" s="158"/>
+      <c r="D1027" s="159"/>
+      <c r="E1027" s="159"/>
     </row>
     <row r="1028" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1028" s="64">
@@ -13778,9 +13952,9 @@
         <v>83</v>
       </c>
       <c r="B1044" s="87"/>
-      <c r="C1044" s="160"/>
-      <c r="D1044" s="161"/>
-      <c r="E1044" s="161"/>
+      <c r="C1044" s="158"/>
+      <c r="D1044" s="159"/>
+      <c r="E1044" s="159"/>
     </row>
     <row r="1045" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1045" s="64">
@@ -13931,9 +14105,9 @@
         <v>82</v>
       </c>
       <c r="B1061" s="87"/>
-      <c r="C1061" s="160"/>
-      <c r="D1061" s="161"/>
-      <c r="E1061" s="161"/>
+      <c r="C1061" s="158"/>
+      <c r="D1061" s="159"/>
+      <c r="E1061" s="159"/>
     </row>
     <row r="1062" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1062" s="64">
@@ -14084,9 +14258,9 @@
         <v>84</v>
       </c>
       <c r="B1078" s="87"/>
-      <c r="C1078" s="160"/>
-      <c r="D1078" s="161"/>
-      <c r="E1078" s="161"/>
+      <c r="C1078" s="158"/>
+      <c r="D1078" s="159"/>
+      <c r="E1078" s="159"/>
     </row>
     <row r="1079" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1079" s="64">
@@ -14237,18 +14411,18 @@
         <v>104</v>
       </c>
       <c r="B1095" s="40"/>
-      <c r="C1095" s="170"/>
-      <c r="D1095" s="171"/>
-      <c r="E1095" s="171"/>
+      <c r="C1095" s="168"/>
+      <c r="D1095" s="169"/>
+      <c r="E1095" s="169"/>
     </row>
     <row r="1096" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A1096" s="68" t="s">
         <v>85</v>
       </c>
       <c r="B1096" s="87"/>
-      <c r="C1096" s="160"/>
-      <c r="D1096" s="161"/>
-      <c r="E1096" s="161"/>
+      <c r="C1096" s="158"/>
+      <c r="D1096" s="159"/>
+      <c r="E1096" s="159"/>
     </row>
     <row r="1097" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1097" s="69">
@@ -14399,9 +14573,9 @@
         <v>86</v>
       </c>
       <c r="B1113" s="90"/>
-      <c r="C1113" s="162"/>
-      <c r="D1113" s="163"/>
-      <c r="E1113" s="163"/>
+      <c r="C1113" s="160"/>
+      <c r="D1113" s="161"/>
+      <c r="E1113" s="161"/>
     </row>
     <row r="1114" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1114" s="69">
@@ -14552,9 +14726,9 @@
         <v>87</v>
       </c>
       <c r="B1130" s="87"/>
-      <c r="C1130" s="160"/>
-      <c r="D1130" s="161"/>
-      <c r="E1130" s="161"/>
+      <c r="C1130" s="158"/>
+      <c r="D1130" s="159"/>
+      <c r="E1130" s="159"/>
     </row>
     <row r="1131" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1131" s="69">
@@ -14705,9 +14879,9 @@
         <v>88</v>
       </c>
       <c r="B1147" s="87"/>
-      <c r="C1147" s="160"/>
-      <c r="D1147" s="161"/>
-      <c r="E1147" s="161"/>
+      <c r="C1147" s="158"/>
+      <c r="D1147" s="159"/>
+      <c r="E1147" s="159"/>
     </row>
     <row r="1148" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1148" s="69">
@@ -14858,9 +15032,9 @@
         <v>89</v>
       </c>
       <c r="B1164" s="87"/>
-      <c r="C1164" s="160"/>
-      <c r="D1164" s="161"/>
-      <c r="E1164" s="161"/>
+      <c r="C1164" s="158"/>
+      <c r="D1164" s="159"/>
+      <c r="E1164" s="159"/>
     </row>
     <row r="1165" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1165" s="69">
@@ -15011,9 +15185,9 @@
         <v>90</v>
       </c>
       <c r="B1181" s="87"/>
-      <c r="C1181" s="160"/>
-      <c r="D1181" s="161"/>
-      <c r="E1181" s="161"/>
+      <c r="C1181" s="158"/>
+      <c r="D1181" s="159"/>
+      <c r="E1181" s="159"/>
     </row>
     <row r="1182" spans="1:5" hidden="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A1182" s="69">
@@ -15164,9 +15338,9 @@
         <v>91</v>
       </c>
       <c r="B1198" s="87"/>
-      <c r="C1198" s="160"/>
-      <c r="D1198" s="161"/>
-      <c r="E1198" s="161"/>
+      <c r="C1198" s="158"/>
+      <c r="D1198" s="159"/>
+      <c r="E1198" s="159"/>
     </row>
     <row r="1199" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1199" s="69">
@@ -15317,9 +15491,9 @@
         <v>92</v>
       </c>
       <c r="B1215" s="87"/>
-      <c r="C1215" s="160"/>
-      <c r="D1215" s="161"/>
-      <c r="E1215" s="161"/>
+      <c r="C1215" s="158"/>
+      <c r="D1215" s="159"/>
+      <c r="E1215" s="159"/>
     </row>
     <row r="1216" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1216" s="69">
@@ -15470,9 +15644,9 @@
         <v>93</v>
       </c>
       <c r="B1232" s="87"/>
-      <c r="C1232" s="160"/>
-      <c r="D1232" s="161"/>
-      <c r="E1232" s="161"/>
+      <c r="C1232" s="158"/>
+      <c r="D1232" s="159"/>
+      <c r="E1232" s="159"/>
     </row>
     <row r="1233" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1233" s="69">
@@ -15623,9 +15797,9 @@
         <v>94</v>
       </c>
       <c r="B1249" s="87"/>
-      <c r="C1249" s="160"/>
-      <c r="D1249" s="161"/>
-      <c r="E1249" s="161"/>
+      <c r="C1249" s="158"/>
+      <c r="D1249" s="159"/>
+      <c r="E1249" s="159"/>
     </row>
     <row r="1250" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1250" s="69">
@@ -15776,9 +15950,9 @@
         <v>99</v>
       </c>
       <c r="B1266" s="87"/>
-      <c r="C1266" s="160"/>
-      <c r="D1266" s="161"/>
-      <c r="E1266" s="161"/>
+      <c r="C1266" s="158"/>
+      <c r="D1266" s="159"/>
+      <c r="E1266" s="159"/>
     </row>
     <row r="1267" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1267" s="69">
@@ -15929,9 +16103,9 @@
         <v>100</v>
       </c>
       <c r="B1283" s="87"/>
-      <c r="C1283" s="160"/>
-      <c r="D1283" s="161"/>
-      <c r="E1283" s="161"/>
+      <c r="C1283" s="158"/>
+      <c r="D1283" s="159"/>
+      <c r="E1283" s="159"/>
     </row>
     <row r="1284" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1284" s="69">
@@ -16082,9 +16256,9 @@
         <v>101</v>
       </c>
       <c r="B1300" s="87"/>
-      <c r="C1300" s="160"/>
-      <c r="D1300" s="161"/>
-      <c r="E1300" s="161"/>
+      <c r="C1300" s="158"/>
+      <c r="D1300" s="159"/>
+      <c r="E1300" s="159"/>
     </row>
     <row r="1301" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1301" s="69">
@@ -16235,9 +16409,9 @@
         <v>81</v>
       </c>
       <c r="B1317" s="87"/>
-      <c r="C1317" s="160"/>
-      <c r="D1317" s="161"/>
-      <c r="E1317" s="161"/>
+      <c r="C1317" s="158"/>
+      <c r="D1317" s="159"/>
+      <c r="E1317" s="159"/>
     </row>
     <row r="1318" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1318" s="69">
@@ -16388,9 +16562,9 @@
         <v>102</v>
       </c>
       <c r="B1334" s="87"/>
-      <c r="C1334" s="160"/>
-      <c r="D1334" s="161"/>
-      <c r="E1334" s="161"/>
+      <c r="C1334" s="158"/>
+      <c r="D1334" s="159"/>
+      <c r="E1334" s="159"/>
     </row>
     <row r="1335" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1335" s="69">
@@ -16541,9 +16715,9 @@
         <v>98</v>
       </c>
       <c r="B1351" s="87"/>
-      <c r="C1351" s="160"/>
-      <c r="D1351" s="161"/>
-      <c r="E1351" s="161"/>
+      <c r="C1351" s="158"/>
+      <c r="D1351" s="159"/>
+      <c r="E1351" s="159"/>
     </row>
     <row r="1352" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1352" s="69">
@@ -16694,18 +16868,18 @@
         <v>103</v>
       </c>
       <c r="B1368" s="41"/>
-      <c r="C1368" s="172"/>
-      <c r="D1368" s="173"/>
-      <c r="E1368" s="173"/>
+      <c r="C1368" s="166"/>
+      <c r="D1368" s="167"/>
+      <c r="E1368" s="167"/>
     </row>
     <row r="1369" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A1369" s="73" t="s">
         <v>105</v>
       </c>
       <c r="B1369" s="87"/>
-      <c r="C1369" s="160"/>
-      <c r="D1369" s="161"/>
-      <c r="E1369" s="161"/>
+      <c r="C1369" s="158"/>
+      <c r="D1369" s="159"/>
+      <c r="E1369" s="159"/>
     </row>
     <row r="1370" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1370" s="74">
@@ -16856,9 +17030,9 @@
         <v>106</v>
       </c>
       <c r="B1386" s="90"/>
-      <c r="C1386" s="162"/>
-      <c r="D1386" s="163"/>
-      <c r="E1386" s="163"/>
+      <c r="C1386" s="160"/>
+      <c r="D1386" s="161"/>
+      <c r="E1386" s="161"/>
     </row>
     <row r="1387" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1387" s="74">
@@ -17009,9 +17183,9 @@
         <v>107</v>
       </c>
       <c r="B1403" s="87"/>
-      <c r="C1403" s="160"/>
-      <c r="D1403" s="161"/>
-      <c r="E1403" s="161"/>
+      <c r="C1403" s="158"/>
+      <c r="D1403" s="159"/>
+      <c r="E1403" s="159"/>
     </row>
     <row r="1404" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1404" s="74">
@@ -17162,9 +17336,9 @@
         <v>108</v>
       </c>
       <c r="B1420" s="87"/>
-      <c r="C1420" s="160"/>
-      <c r="D1420" s="161"/>
-      <c r="E1420" s="161"/>
+      <c r="C1420" s="158"/>
+      <c r="D1420" s="159"/>
+      <c r="E1420" s="159"/>
     </row>
     <row r="1421" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1421" s="74">
@@ -17315,9 +17489,9 @@
         <v>109</v>
       </c>
       <c r="B1437" s="87"/>
-      <c r="C1437" s="160"/>
-      <c r="D1437" s="161"/>
-      <c r="E1437" s="161"/>
+      <c r="C1437" s="158"/>
+      <c r="D1437" s="159"/>
+      <c r="E1437" s="159"/>
     </row>
     <row r="1438" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1438" s="74">
@@ -17468,9 +17642,9 @@
         <v>110</v>
       </c>
       <c r="B1454" s="87"/>
-      <c r="C1454" s="160"/>
-      <c r="D1454" s="161"/>
-      <c r="E1454" s="161"/>
+      <c r="C1454" s="158"/>
+      <c r="D1454" s="159"/>
+      <c r="E1454" s="159"/>
     </row>
     <row r="1455" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1455" s="74">
@@ -17621,9 +17795,9 @@
         <v>111</v>
       </c>
       <c r="B1471" s="87"/>
-      <c r="C1471" s="160"/>
-      <c r="D1471" s="161"/>
-      <c r="E1471" s="161"/>
+      <c r="C1471" s="158"/>
+      <c r="D1471" s="159"/>
+      <c r="E1471" s="159"/>
     </row>
     <row r="1472" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1472" s="74">
@@ -17774,9 +17948,9 @@
         <v>112</v>
       </c>
       <c r="B1488" s="87"/>
-      <c r="C1488" s="160"/>
-      <c r="D1488" s="161"/>
-      <c r="E1488" s="161"/>
+      <c r="C1488" s="158"/>
+      <c r="D1488" s="159"/>
+      <c r="E1488" s="159"/>
     </row>
     <row r="1489" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1489" s="74">
@@ -17927,9 +18101,9 @@
         <v>113</v>
       </c>
       <c r="B1505" s="87"/>
-      <c r="C1505" s="160"/>
-      <c r="D1505" s="161"/>
-      <c r="E1505" s="161"/>
+      <c r="C1505" s="158"/>
+      <c r="D1505" s="159"/>
+      <c r="E1505" s="159"/>
     </row>
     <row r="1506" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1506" s="74">
@@ -18080,9 +18254,9 @@
         <v>114</v>
       </c>
       <c r="B1522" s="87"/>
-      <c r="C1522" s="160"/>
-      <c r="D1522" s="161"/>
-      <c r="E1522" s="161"/>
+      <c r="C1522" s="158"/>
+      <c r="D1522" s="159"/>
+      <c r="E1522" s="159"/>
     </row>
     <row r="1523" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1523" s="74">
@@ -18233,9 +18407,9 @@
         <v>95</v>
       </c>
       <c r="B1539" s="87"/>
-      <c r="C1539" s="160"/>
-      <c r="D1539" s="161"/>
-      <c r="E1539" s="161"/>
+      <c r="C1539" s="158"/>
+      <c r="D1539" s="159"/>
+      <c r="E1539" s="159"/>
     </row>
     <row r="1540" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1540" s="74">
@@ -18386,9 +18560,9 @@
         <v>115</v>
       </c>
       <c r="B1556" s="87"/>
-      <c r="C1556" s="160"/>
-      <c r="D1556" s="161"/>
-      <c r="E1556" s="161"/>
+      <c r="C1556" s="158"/>
+      <c r="D1556" s="159"/>
+      <c r="E1556" s="159"/>
     </row>
     <row r="1557" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1557" s="74">
@@ -18539,9 +18713,9 @@
         <v>116</v>
       </c>
       <c r="B1573" s="87"/>
-      <c r="C1573" s="160"/>
-      <c r="D1573" s="161"/>
-      <c r="E1573" s="161"/>
+      <c r="C1573" s="158"/>
+      <c r="D1573" s="159"/>
+      <c r="E1573" s="159"/>
     </row>
     <row r="1574" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1574" s="74">
@@ -18692,9 +18866,9 @@
         <v>117</v>
       </c>
       <c r="B1590" s="87"/>
-      <c r="C1590" s="160"/>
-      <c r="D1590" s="161"/>
-      <c r="E1590" s="161"/>
+      <c r="C1590" s="158"/>
+      <c r="D1590" s="159"/>
+      <c r="E1590" s="159"/>
     </row>
     <row r="1591" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1591" s="74">
@@ -18845,9 +19019,9 @@
         <v>118</v>
       </c>
       <c r="B1607" s="87"/>
-      <c r="C1607" s="160"/>
-      <c r="D1607" s="161"/>
-      <c r="E1607" s="161"/>
+      <c r="C1607" s="158"/>
+      <c r="D1607" s="159"/>
+      <c r="E1607" s="159"/>
     </row>
     <row r="1608" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1608" s="74">
@@ -18998,9 +19172,9 @@
         <v>119</v>
       </c>
       <c r="B1624" s="87"/>
-      <c r="C1624" s="160"/>
-      <c r="D1624" s="161"/>
-      <c r="E1624" s="161"/>
+      <c r="C1624" s="158"/>
+      <c r="D1624" s="159"/>
+      <c r="E1624" s="159"/>
     </row>
     <row r="1625" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1625" s="74">
@@ -19151,18 +19325,18 @@
         <v>120</v>
       </c>
       <c r="B1641" s="42"/>
-      <c r="C1641" s="174"/>
-      <c r="D1641" s="175"/>
-      <c r="E1641" s="175"/>
+      <c r="C1641" s="164"/>
+      <c r="D1641" s="165"/>
+      <c r="E1641" s="165"/>
     </row>
     <row r="1642" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A1642" s="78" t="s">
         <v>121</v>
       </c>
       <c r="B1642" s="87"/>
-      <c r="C1642" s="160"/>
-      <c r="D1642" s="161"/>
-      <c r="E1642" s="161"/>
+      <c r="C1642" s="158"/>
+      <c r="D1642" s="159"/>
+      <c r="E1642" s="159"/>
     </row>
     <row r="1643" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1643" s="79">
@@ -19313,9 +19487,9 @@
         <v>122</v>
       </c>
       <c r="B1659" s="90"/>
-      <c r="C1659" s="162"/>
-      <c r="D1659" s="163"/>
-      <c r="E1659" s="163"/>
+      <c r="C1659" s="160"/>
+      <c r="D1659" s="161"/>
+      <c r="E1659" s="161"/>
     </row>
     <row r="1660" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1660" s="79">
@@ -19466,9 +19640,9 @@
         <v>123</v>
       </c>
       <c r="B1676" s="87"/>
-      <c r="C1676" s="160"/>
-      <c r="D1676" s="161"/>
-      <c r="E1676" s="161"/>
+      <c r="C1676" s="158"/>
+      <c r="D1676" s="159"/>
+      <c r="E1676" s="159"/>
     </row>
     <row r="1677" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1677" s="79">
@@ -19619,9 +19793,9 @@
         <v>124</v>
       </c>
       <c r="B1693" s="87"/>
-      <c r="C1693" s="160"/>
-      <c r="D1693" s="161"/>
-      <c r="E1693" s="161"/>
+      <c r="C1693" s="158"/>
+      <c r="D1693" s="159"/>
+      <c r="E1693" s="159"/>
     </row>
     <row r="1694" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1694" s="79">
@@ -19772,9 +19946,9 @@
         <v>125</v>
       </c>
       <c r="B1710" s="87"/>
-      <c r="C1710" s="160"/>
-      <c r="D1710" s="161"/>
-      <c r="E1710" s="161"/>
+      <c r="C1710" s="158"/>
+      <c r="D1710" s="159"/>
+      <c r="E1710" s="159"/>
     </row>
     <row r="1711" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1711" s="79">
@@ -19925,9 +20099,9 @@
         <v>126</v>
       </c>
       <c r="B1727" s="87"/>
-      <c r="C1727" s="160"/>
-      <c r="D1727" s="161"/>
-      <c r="E1727" s="161"/>
+      <c r="C1727" s="158"/>
+      <c r="D1727" s="159"/>
+      <c r="E1727" s="159"/>
     </row>
     <row r="1728" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1728" s="79">
@@ -20078,9 +20252,9 @@
         <v>127</v>
       </c>
       <c r="B1744" s="87"/>
-      <c r="C1744" s="160"/>
-      <c r="D1744" s="161"/>
-      <c r="E1744" s="161"/>
+      <c r="C1744" s="158"/>
+      <c r="D1744" s="159"/>
+      <c r="E1744" s="159"/>
     </row>
     <row r="1745" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1745" s="79">
@@ -20231,9 +20405,9 @@
         <v>128</v>
       </c>
       <c r="B1761" s="87"/>
-      <c r="C1761" s="160"/>
-      <c r="D1761" s="161"/>
-      <c r="E1761" s="161"/>
+      <c r="C1761" s="158"/>
+      <c r="D1761" s="159"/>
+      <c r="E1761" s="159"/>
     </row>
     <row r="1762" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1762" s="79">
@@ -20384,9 +20558,9 @@
         <v>129</v>
       </c>
       <c r="B1778" s="87"/>
-      <c r="C1778" s="160"/>
-      <c r="D1778" s="161"/>
-      <c r="E1778" s="161"/>
+      <c r="C1778" s="158"/>
+      <c r="D1778" s="159"/>
+      <c r="E1778" s="159"/>
     </row>
     <row r="1779" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1779" s="79">
@@ -20537,9 +20711,9 @@
         <v>130</v>
       </c>
       <c r="B1795" s="87"/>
-      <c r="C1795" s="160"/>
-      <c r="D1795" s="161"/>
-      <c r="E1795" s="161"/>
+      <c r="C1795" s="158"/>
+      <c r="D1795" s="159"/>
+      <c r="E1795" s="159"/>
     </row>
     <row r="1796" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1796" s="79">
@@ -20690,9 +20864,9 @@
         <v>131</v>
       </c>
       <c r="B1812" s="87"/>
-      <c r="C1812" s="160"/>
-      <c r="D1812" s="161"/>
-      <c r="E1812" s="161"/>
+      <c r="C1812" s="158"/>
+      <c r="D1812" s="159"/>
+      <c r="E1812" s="159"/>
     </row>
     <row r="1813" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1813" s="79">
@@ -20843,9 +21017,9 @@
         <v>96</v>
       </c>
       <c r="B1829" s="87"/>
-      <c r="C1829" s="160"/>
-      <c r="D1829" s="161"/>
-      <c r="E1829" s="161"/>
+      <c r="C1829" s="158"/>
+      <c r="D1829" s="159"/>
+      <c r="E1829" s="159"/>
     </row>
     <row r="1830" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1830" s="79">
@@ -20996,9 +21170,9 @@
         <v>132</v>
       </c>
       <c r="B1846" s="87"/>
-      <c r="C1846" s="160"/>
-      <c r="D1846" s="161"/>
-      <c r="E1846" s="161"/>
+      <c r="C1846" s="158"/>
+      <c r="D1846" s="159"/>
+      <c r="E1846" s="159"/>
     </row>
     <row r="1847" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1847" s="79">
@@ -21149,9 +21323,9 @@
         <v>133</v>
       </c>
       <c r="B1863" s="87"/>
-      <c r="C1863" s="160"/>
-      <c r="D1863" s="161"/>
-      <c r="E1863" s="161"/>
+      <c r="C1863" s="158"/>
+      <c r="D1863" s="159"/>
+      <c r="E1863" s="159"/>
     </row>
     <row r="1864" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1864" s="79">
@@ -21302,9 +21476,9 @@
         <v>134</v>
       </c>
       <c r="B1880" s="87"/>
-      <c r="C1880" s="160"/>
-      <c r="D1880" s="161"/>
-      <c r="E1880" s="161"/>
+      <c r="C1880" s="158"/>
+      <c r="D1880" s="159"/>
+      <c r="E1880" s="159"/>
     </row>
     <row r="1881" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1881" s="79">
@@ -21455,9 +21629,9 @@
         <v>135</v>
       </c>
       <c r="B1897" s="87"/>
-      <c r="C1897" s="160"/>
-      <c r="D1897" s="161"/>
-      <c r="E1897" s="161"/>
+      <c r="C1897" s="158"/>
+      <c r="D1897" s="159"/>
+      <c r="E1897" s="159"/>
     </row>
     <row r="1898" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1898" s="79">
@@ -21608,18 +21782,18 @@
         <v>136</v>
       </c>
       <c r="B1914" s="43"/>
-      <c r="C1914" s="176"/>
-      <c r="D1914" s="177"/>
-      <c r="E1914" s="177"/>
+      <c r="C1914" s="162"/>
+      <c r="D1914" s="163"/>
+      <c r="E1914" s="163"/>
     </row>
     <row r="1915" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A1915" s="83" t="s">
         <v>137</v>
       </c>
       <c r="B1915" s="87"/>
-      <c r="C1915" s="160"/>
-      <c r="D1915" s="161"/>
-      <c r="E1915" s="161"/>
+      <c r="C1915" s="158"/>
+      <c r="D1915" s="159"/>
+      <c r="E1915" s="159"/>
     </row>
     <row r="1916" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1916" s="84">
@@ -21770,9 +21944,9 @@
         <v>138</v>
       </c>
       <c r="B1932" s="90"/>
-      <c r="C1932" s="162"/>
-      <c r="D1932" s="163"/>
-      <c r="E1932" s="163"/>
+      <c r="C1932" s="160"/>
+      <c r="D1932" s="161"/>
+      <c r="E1932" s="161"/>
     </row>
     <row r="1933" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1933" s="84">
@@ -21923,9 +22097,9 @@
         <v>139</v>
       </c>
       <c r="B1949" s="87"/>
-      <c r="C1949" s="160"/>
-      <c r="D1949" s="161"/>
-      <c r="E1949" s="161"/>
+      <c r="C1949" s="158"/>
+      <c r="D1949" s="159"/>
+      <c r="E1949" s="159"/>
     </row>
     <row r="1950" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1950" s="84">
@@ -22076,9 +22250,9 @@
         <v>140</v>
       </c>
       <c r="B1966" s="87"/>
-      <c r="C1966" s="160"/>
-      <c r="D1966" s="161"/>
-      <c r="E1966" s="161"/>
+      <c r="C1966" s="158"/>
+      <c r="D1966" s="159"/>
+      <c r="E1966" s="159"/>
     </row>
     <row r="1967" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1967" s="84">
@@ -22229,9 +22403,9 @@
         <v>141</v>
       </c>
       <c r="B1983" s="87"/>
-      <c r="C1983" s="160"/>
-      <c r="D1983" s="161"/>
-      <c r="E1983" s="161"/>
+      <c r="C1983" s="158"/>
+      <c r="D1983" s="159"/>
+      <c r="E1983" s="159"/>
     </row>
     <row r="1984" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A1984" s="84">
@@ -22382,9 +22556,9 @@
         <v>142</v>
       </c>
       <c r="B2000" s="87"/>
-      <c r="C2000" s="160"/>
-      <c r="D2000" s="161"/>
-      <c r="E2000" s="161"/>
+      <c r="C2000" s="158"/>
+      <c r="D2000" s="159"/>
+      <c r="E2000" s="159"/>
     </row>
     <row r="2001" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A2001" s="84">
@@ -22535,9 +22709,9 @@
         <v>143</v>
       </c>
       <c r="B2017" s="87"/>
-      <c r="C2017" s="160"/>
-      <c r="D2017" s="161"/>
-      <c r="E2017" s="161"/>
+      <c r="C2017" s="158"/>
+      <c r="D2017" s="159"/>
+      <c r="E2017" s="159"/>
     </row>
     <row r="2018" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A2018" s="84">
@@ -22688,9 +22862,9 @@
         <v>144</v>
       </c>
       <c r="B2034" s="87"/>
-      <c r="C2034" s="160"/>
-      <c r="D2034" s="161"/>
-      <c r="E2034" s="161"/>
+      <c r="C2034" s="158"/>
+      <c r="D2034" s="159"/>
+      <c r="E2034" s="159"/>
     </row>
     <row r="2035" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A2035" s="84">
@@ -22841,9 +23015,9 @@
         <v>145</v>
       </c>
       <c r="B2051" s="87"/>
-      <c r="C2051" s="160"/>
-      <c r="D2051" s="161"/>
-      <c r="E2051" s="161"/>
+      <c r="C2051" s="158"/>
+      <c r="D2051" s="159"/>
+      <c r="E2051" s="159"/>
     </row>
     <row r="2052" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A2052" s="84">
@@ -22994,9 +23168,9 @@
         <v>146</v>
       </c>
       <c r="B2068" s="87"/>
-      <c r="C2068" s="160"/>
-      <c r="D2068" s="161"/>
-      <c r="E2068" s="161"/>
+      <c r="C2068" s="158"/>
+      <c r="D2068" s="159"/>
+      <c r="E2068" s="159"/>
     </row>
     <row r="2069" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A2069" s="84">
@@ -23147,9 +23321,9 @@
         <v>147</v>
       </c>
       <c r="B2085" s="87"/>
-      <c r="C2085" s="160"/>
-      <c r="D2085" s="161"/>
-      <c r="E2085" s="161"/>
+      <c r="C2085" s="158"/>
+      <c r="D2085" s="159"/>
+      <c r="E2085" s="159"/>
     </row>
     <row r="2086" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A2086" s="84">
@@ -23300,9 +23474,9 @@
         <v>148</v>
       </c>
       <c r="B2102" s="87"/>
-      <c r="C2102" s="160"/>
-      <c r="D2102" s="161"/>
-      <c r="E2102" s="161"/>
+      <c r="C2102" s="158"/>
+      <c r="D2102" s="159"/>
+      <c r="E2102" s="159"/>
     </row>
     <row r="2103" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A2103" s="84">
@@ -23453,9 +23627,9 @@
         <v>97</v>
       </c>
       <c r="B2119" s="87"/>
-      <c r="C2119" s="160"/>
-      <c r="D2119" s="161"/>
-      <c r="E2119" s="161"/>
+      <c r="C2119" s="158"/>
+      <c r="D2119" s="159"/>
+      <c r="E2119" s="159"/>
     </row>
     <row r="2120" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A2120" s="84">
@@ -23606,9 +23780,9 @@
         <v>149</v>
       </c>
       <c r="B2136" s="87"/>
-      <c r="C2136" s="160"/>
-      <c r="D2136" s="161"/>
-      <c r="E2136" s="161"/>
+      <c r="C2136" s="158"/>
+      <c r="D2136" s="159"/>
+      <c r="E2136" s="159"/>
     </row>
     <row r="2137" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A2137" s="84">
@@ -23759,9 +23933,9 @@
         <v>150</v>
       </c>
       <c r="B2153" s="87"/>
-      <c r="C2153" s="160"/>
-      <c r="D2153" s="161"/>
-      <c r="E2153" s="161"/>
+      <c r="C2153" s="158"/>
+      <c r="D2153" s="159"/>
+      <c r="E2153" s="159"/>
     </row>
     <row r="2154" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A2154" s="84">
@@ -23912,9 +24086,9 @@
         <v>151</v>
       </c>
       <c r="B2170" s="87"/>
-      <c r="C2170" s="160"/>
-      <c r="D2170" s="161"/>
-      <c r="E2170" s="161"/>
+      <c r="C2170" s="158"/>
+      <c r="D2170" s="159"/>
+      <c r="E2170" s="159"/>
     </row>
     <row r="2171" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A2171" s="84">
@@ -24062,15 +24236,122 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="C2034:E2034"/>
-    <mergeCell ref="C2051:E2051"/>
-    <mergeCell ref="C2068:E2068"/>
-    <mergeCell ref="C2085:E2085"/>
-    <mergeCell ref="C2170:E2170"/>
-    <mergeCell ref="C2102:E2102"/>
-    <mergeCell ref="C2119:E2119"/>
-    <mergeCell ref="C2136:E2136"/>
-    <mergeCell ref="C2153:E2153"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="C242:E242"/>
+    <mergeCell ref="C259:E259"/>
+    <mergeCell ref="C276:E276"/>
+    <mergeCell ref="C277:E277"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C396:E396"/>
+    <mergeCell ref="C413:E413"/>
+    <mergeCell ref="C430:E430"/>
+    <mergeCell ref="C447:E447"/>
+    <mergeCell ref="C464:E464"/>
+    <mergeCell ref="C481:E481"/>
+    <mergeCell ref="C294:E294"/>
+    <mergeCell ref="C311:E311"/>
+    <mergeCell ref="C328:E328"/>
+    <mergeCell ref="C345:E345"/>
+    <mergeCell ref="C362:E362"/>
+    <mergeCell ref="C379:E379"/>
+    <mergeCell ref="C584:E584"/>
+    <mergeCell ref="C601:E601"/>
+    <mergeCell ref="C618:E618"/>
+    <mergeCell ref="C635:E635"/>
+    <mergeCell ref="C652:E652"/>
+    <mergeCell ref="C669:E669"/>
+    <mergeCell ref="C498:E498"/>
+    <mergeCell ref="C515:E515"/>
+    <mergeCell ref="C532:E532"/>
+    <mergeCell ref="C549:E549"/>
+    <mergeCell ref="C550:E550"/>
+    <mergeCell ref="C567:E567"/>
+    <mergeCell ref="C788:E788"/>
+    <mergeCell ref="C805:E805"/>
+    <mergeCell ref="C822:E822"/>
+    <mergeCell ref="C823:E823"/>
+    <mergeCell ref="C840:E840"/>
+    <mergeCell ref="C857:E857"/>
+    <mergeCell ref="C686:E686"/>
+    <mergeCell ref="C703:E703"/>
+    <mergeCell ref="C720:E720"/>
+    <mergeCell ref="C737:E737"/>
+    <mergeCell ref="C754:E754"/>
+    <mergeCell ref="C771:E771"/>
+    <mergeCell ref="C976:E976"/>
+    <mergeCell ref="C993:E993"/>
+    <mergeCell ref="C1010:E1010"/>
+    <mergeCell ref="C1027:E1027"/>
+    <mergeCell ref="C1044:E1044"/>
+    <mergeCell ref="C1061:E1061"/>
+    <mergeCell ref="C874:E874"/>
+    <mergeCell ref="C891:E891"/>
+    <mergeCell ref="C908:E908"/>
+    <mergeCell ref="C925:E925"/>
+    <mergeCell ref="C942:E942"/>
+    <mergeCell ref="C959:E959"/>
+    <mergeCell ref="C1164:E1164"/>
+    <mergeCell ref="C1181:E1181"/>
+    <mergeCell ref="C1198:E1198"/>
+    <mergeCell ref="C1215:E1215"/>
+    <mergeCell ref="C1232:E1232"/>
+    <mergeCell ref="C1249:E1249"/>
+    <mergeCell ref="C1078:E1078"/>
+    <mergeCell ref="C1095:E1095"/>
+    <mergeCell ref="C1096:E1096"/>
+    <mergeCell ref="C1113:E1113"/>
+    <mergeCell ref="C1130:E1130"/>
+    <mergeCell ref="C1147:E1147"/>
+    <mergeCell ref="C1368:E1368"/>
+    <mergeCell ref="C1369:E1369"/>
+    <mergeCell ref="C1386:E1386"/>
+    <mergeCell ref="C1403:E1403"/>
+    <mergeCell ref="C1420:E1420"/>
+    <mergeCell ref="C1437:E1437"/>
+    <mergeCell ref="C1266:E1266"/>
+    <mergeCell ref="C1283:E1283"/>
+    <mergeCell ref="C1300:E1300"/>
+    <mergeCell ref="C1317:E1317"/>
+    <mergeCell ref="C1334:E1334"/>
+    <mergeCell ref="C1351:E1351"/>
+    <mergeCell ref="C1556:E1556"/>
+    <mergeCell ref="C1573:E1573"/>
+    <mergeCell ref="C1590:E1590"/>
+    <mergeCell ref="C1607:E1607"/>
+    <mergeCell ref="C1624:E1624"/>
+    <mergeCell ref="C1641:E1641"/>
+    <mergeCell ref="C1454:E1454"/>
+    <mergeCell ref="C1471:E1471"/>
+    <mergeCell ref="C1488:E1488"/>
+    <mergeCell ref="C1505:E1505"/>
+    <mergeCell ref="C1522:E1522"/>
+    <mergeCell ref="C1539:E1539"/>
+    <mergeCell ref="C1744:E1744"/>
+    <mergeCell ref="C1761:E1761"/>
+    <mergeCell ref="C1778:E1778"/>
+    <mergeCell ref="C1795:E1795"/>
+    <mergeCell ref="C1812:E1812"/>
+    <mergeCell ref="C1829:E1829"/>
+    <mergeCell ref="C1642:E1642"/>
+    <mergeCell ref="C1659:E1659"/>
+    <mergeCell ref="C1676:E1676"/>
+    <mergeCell ref="C1693:E1693"/>
+    <mergeCell ref="C1710:E1710"/>
+    <mergeCell ref="C1727:E1727"/>
     <mergeCell ref="C1932:E1932"/>
     <mergeCell ref="C1949:E1949"/>
     <mergeCell ref="C1966:E1966"/>
@@ -24083,124 +24364,17 @@
     <mergeCell ref="C1897:E1897"/>
     <mergeCell ref="C1914:E1914"/>
     <mergeCell ref="C1915:E1915"/>
-    <mergeCell ref="C1744:E1744"/>
-    <mergeCell ref="C1761:E1761"/>
-    <mergeCell ref="C1778:E1778"/>
-    <mergeCell ref="C1795:E1795"/>
-    <mergeCell ref="C1812:E1812"/>
-    <mergeCell ref="C1829:E1829"/>
-    <mergeCell ref="C1642:E1642"/>
-    <mergeCell ref="C1659:E1659"/>
-    <mergeCell ref="C1676:E1676"/>
-    <mergeCell ref="C1693:E1693"/>
-    <mergeCell ref="C1710:E1710"/>
-    <mergeCell ref="C1727:E1727"/>
-    <mergeCell ref="C1556:E1556"/>
-    <mergeCell ref="C1573:E1573"/>
-    <mergeCell ref="C1590:E1590"/>
-    <mergeCell ref="C1607:E1607"/>
-    <mergeCell ref="C1624:E1624"/>
-    <mergeCell ref="C1641:E1641"/>
-    <mergeCell ref="C1454:E1454"/>
-    <mergeCell ref="C1471:E1471"/>
-    <mergeCell ref="C1488:E1488"/>
-    <mergeCell ref="C1505:E1505"/>
-    <mergeCell ref="C1522:E1522"/>
-    <mergeCell ref="C1539:E1539"/>
-    <mergeCell ref="C1368:E1368"/>
-    <mergeCell ref="C1369:E1369"/>
-    <mergeCell ref="C1386:E1386"/>
-    <mergeCell ref="C1403:E1403"/>
-    <mergeCell ref="C1420:E1420"/>
-    <mergeCell ref="C1437:E1437"/>
-    <mergeCell ref="C1266:E1266"/>
-    <mergeCell ref="C1283:E1283"/>
-    <mergeCell ref="C1300:E1300"/>
-    <mergeCell ref="C1317:E1317"/>
-    <mergeCell ref="C1334:E1334"/>
-    <mergeCell ref="C1351:E1351"/>
-    <mergeCell ref="C1164:E1164"/>
-    <mergeCell ref="C1181:E1181"/>
-    <mergeCell ref="C1198:E1198"/>
-    <mergeCell ref="C1215:E1215"/>
-    <mergeCell ref="C1232:E1232"/>
-    <mergeCell ref="C1249:E1249"/>
-    <mergeCell ref="C1078:E1078"/>
-    <mergeCell ref="C1095:E1095"/>
-    <mergeCell ref="C1096:E1096"/>
-    <mergeCell ref="C1113:E1113"/>
-    <mergeCell ref="C1130:E1130"/>
-    <mergeCell ref="C1147:E1147"/>
-    <mergeCell ref="C976:E976"/>
-    <mergeCell ref="C993:E993"/>
-    <mergeCell ref="C1010:E1010"/>
-    <mergeCell ref="C1027:E1027"/>
-    <mergeCell ref="C1044:E1044"/>
-    <mergeCell ref="C1061:E1061"/>
-    <mergeCell ref="C874:E874"/>
-    <mergeCell ref="C891:E891"/>
-    <mergeCell ref="C908:E908"/>
-    <mergeCell ref="C925:E925"/>
-    <mergeCell ref="C942:E942"/>
-    <mergeCell ref="C959:E959"/>
-    <mergeCell ref="C788:E788"/>
-    <mergeCell ref="C805:E805"/>
-    <mergeCell ref="C822:E822"/>
-    <mergeCell ref="C823:E823"/>
-    <mergeCell ref="C840:E840"/>
-    <mergeCell ref="C857:E857"/>
-    <mergeCell ref="C686:E686"/>
-    <mergeCell ref="C703:E703"/>
-    <mergeCell ref="C720:E720"/>
-    <mergeCell ref="C737:E737"/>
-    <mergeCell ref="C754:E754"/>
-    <mergeCell ref="C771:E771"/>
-    <mergeCell ref="C584:E584"/>
-    <mergeCell ref="C601:E601"/>
-    <mergeCell ref="C618:E618"/>
-    <mergeCell ref="C635:E635"/>
-    <mergeCell ref="C652:E652"/>
-    <mergeCell ref="C669:E669"/>
-    <mergeCell ref="C498:E498"/>
-    <mergeCell ref="C515:E515"/>
-    <mergeCell ref="C532:E532"/>
-    <mergeCell ref="C549:E549"/>
-    <mergeCell ref="C550:E550"/>
-    <mergeCell ref="C567:E567"/>
-    <mergeCell ref="C396:E396"/>
-    <mergeCell ref="C413:E413"/>
-    <mergeCell ref="C430:E430"/>
-    <mergeCell ref="C447:E447"/>
-    <mergeCell ref="C464:E464"/>
-    <mergeCell ref="C481:E481"/>
-    <mergeCell ref="C294:E294"/>
-    <mergeCell ref="C311:E311"/>
-    <mergeCell ref="C328:E328"/>
-    <mergeCell ref="C345:E345"/>
-    <mergeCell ref="C362:E362"/>
-    <mergeCell ref="C379:E379"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="C242:E242"/>
-    <mergeCell ref="C259:E259"/>
-    <mergeCell ref="C276:E276"/>
-    <mergeCell ref="C277:E277"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="C174:E174"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C2034:E2034"/>
+    <mergeCell ref="C2051:E2051"/>
+    <mergeCell ref="C2068:E2068"/>
+    <mergeCell ref="C2085:E2085"/>
+    <mergeCell ref="C2170:E2170"/>
+    <mergeCell ref="C2102:E2102"/>
+    <mergeCell ref="C2119:E2119"/>
+    <mergeCell ref="C2136:E2136"/>
+    <mergeCell ref="C2153:E2153"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -24225,51 +24399,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="182" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="183"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="184"/>
     </row>
     <row r="3" spans="1:12" s="31" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="179" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="180"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
     </row>
     <row r="4" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
@@ -24486,19 +24660,19 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="178" t="s">
+      <c r="A20" s="179" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="180"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="181"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
@@ -24715,19 +24889,19 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="178" t="s">
+      <c r="A37" s="179" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="179"/>
-      <c r="C37" s="179"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="179"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="179"/>
-      <c r="H37" s="179"/>
-      <c r="I37" s="179"/>
-      <c r="J37" s="179"/>
-      <c r="K37" s="180"/>
+      <c r="B37" s="180"/>
+      <c r="C37" s="180"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="180"/>
+      <c r="H37" s="180"/>
+      <c r="I37" s="180"/>
+      <c r="J37" s="180"/>
+      <c r="K37" s="181"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
@@ -24951,7 +25125,7 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A20:K20"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -24985,28 +25159,28 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="185"/>
+      <c r="A3" s="186"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="186"/>
+      <c r="A4" s="187"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="186"/>
+      <c r="A5" s="187"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="186"/>
+      <c r="A6" s="187"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="186"/>
+      <c r="A7" s="187"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="186"/>
+      <c r="A8" s="187"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="186"/>
+      <c r="A9" s="187"/>
     </row>
     <row r="10" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="187"/>
+      <c r="A10" s="188"/>
     </row>
     <row r="11" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -25162,7 +25336,7 @@
   <mergeCells count="1">
     <mergeCell ref="A3:A10"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -25189,10 +25363,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="189" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="189"/>
+      <c r="C1" s="190"/>
       <c r="D1" s="92"/>
       <c r="E1" s="32"/>
     </row>
@@ -25203,7 +25377,7 @@
       <c r="E2" s="119"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="191" t="s">
         <v>210</v>
       </c>
       <c r="B3" s="131" t="s">
@@ -25217,7 +25391,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="191"/>
+      <c r="A4" s="192"/>
       <c r="B4" s="128" t="s">
         <v>159</v>
       </c>
@@ -25229,7 +25403,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="191"/>
+      <c r="A5" s="192"/>
       <c r="B5" s="128" t="s">
         <v>160</v>
       </c>
@@ -25238,7 +25412,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="191"/>
+      <c r="A6" s="192"/>
       <c r="B6" s="139" t="s">
         <v>212</v>
       </c>
@@ -25250,7 +25424,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="191"/>
+      <c r="A7" s="192"/>
       <c r="B7" s="128" t="s">
         <v>178</v>
       </c>
@@ -25262,7 +25436,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="191"/>
+      <c r="A8" s="192"/>
       <c r="B8" s="128" t="s">
         <v>179</v>
       </c>
@@ -25271,7 +25445,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="192"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="136" t="s">
         <v>161</v>
       </c>
@@ -25286,7 +25460,7 @@
       <c r="E10" s="94"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="190" t="s">
+      <c r="A11" s="191" t="s">
         <v>211</v>
       </c>
       <c r="B11" s="131" t="s">
@@ -25300,7 +25474,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="191"/>
+      <c r="A12" s="192"/>
       <c r="B12" s="128" t="s">
         <v>159</v>
       </c>
@@ -25312,7 +25486,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="191"/>
+      <c r="A13" s="192"/>
       <c r="B13" s="128" t="s">
         <v>160</v>
       </c>
@@ -25321,7 +25495,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="191"/>
+      <c r="A14" s="192"/>
       <c r="B14" s="139" t="s">
         <v>212</v>
       </c>
@@ -25333,7 +25507,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="191"/>
+      <c r="A15" s="192"/>
       <c r="B15" s="128" t="s">
         <v>178</v>
       </c>
@@ -25345,7 +25519,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="191"/>
+      <c r="A16" s="192"/>
       <c r="B16" s="128" t="s">
         <v>179</v>
       </c>
@@ -25354,7 +25528,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="192"/>
+      <c r="A17" s="193"/>
       <c r="B17" s="136" t="s">
         <v>161</v>
       </c>
@@ -25369,7 +25543,7 @@
       <c r="E18" s="94"/>
     </row>
     <row r="19" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="190" t="s">
+      <c r="A19" s="191" t="s">
         <v>211</v>
       </c>
       <c r="B19" s="131" t="s">
@@ -25378,7 +25552,7 @@
       <c r="C19" s="130"/>
     </row>
     <row r="20" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="191"/>
+      <c r="A20" s="192"/>
       <c r="B20" s="128" t="s">
         <v>159</v>
       </c>
@@ -25388,14 +25562,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="191"/>
+      <c r="A21" s="192"/>
       <c r="B21" s="128" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="133"/>
     </row>
     <row r="22" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="191"/>
+      <c r="A22" s="192"/>
       <c r="B22" s="139" t="s">
         <v>212</v>
       </c>
@@ -25405,7 +25579,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="191"/>
+      <c r="A23" s="192"/>
       <c r="B23" s="128" t="s">
         <v>178</v>
       </c>
@@ -25415,14 +25589,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="191"/>
+      <c r="A24" s="192"/>
       <c r="B24" s="128" t="s">
         <v>179</v>
       </c>
       <c r="C24" s="132"/>
     </row>
     <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="192"/>
+      <c r="A25" s="193"/>
       <c r="B25" s="136" t="s">
         <v>161</v>
       </c>
@@ -25435,7 +25609,7 @@
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A19:A25"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -25466,17 +25640,17 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="200" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="210"/>
+      <c r="B2" s="201"/>
       <c r="C2" s="120"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="202" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="210"/>
+      <c r="B3" s="201"/>
       <c r="C3" s="120"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -25492,115 +25666,128 @@
       <c r="C5" s="120"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="211" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="198"/>
+      <c r="B7" s="212"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="120"/>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="199" t="s">
+      <c r="A9" s="209" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="200"/>
+      <c r="B9" s="210"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="201"/>
-      <c r="B10" s="202"/>
+      <c r="A10" s="196"/>
+      <c r="B10" s="197"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="193" t="s">
+      <c r="A11" s="198" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="194"/>
+      <c r="B11" s="199"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="193" t="s">
+      <c r="A12" s="198" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="194"/>
+      <c r="B12" s="199"/>
     </row>
     <row r="13" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="193" t="s">
+      <c r="A13" s="198" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="194"/>
+      <c r="B13" s="199"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="193" t="s">
+      <c r="A14" s="198" t="s">
         <v>199</v>
       </c>
-      <c r="B14" s="194"/>
+      <c r="B14" s="199"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="193" t="s">
+      <c r="A15" s="198" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="194"/>
+      <c r="B15" s="199"/>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="193" t="s">
+      <c r="A16" s="198" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="194"/>
+      <c r="B16" s="199"/>
     </row>
     <row r="17" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="195" t="s">
+      <c r="A17" s="194" t="s">
         <v>203</v>
       </c>
-      <c r="B17" s="196"/>
+      <c r="B17" s="195"/>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="197" t="s">
+      <c r="A19" s="211" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="198"/>
+      <c r="B19" s="212"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="120"/>
       <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="199" t="s">
+      <c r="A21" s="209" t="s">
         <v>206</v>
       </c>
-      <c r="B21" s="200"/>
+      <c r="B21" s="210"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="201"/>
-      <c r="B22" s="202"/>
+      <c r="A22" s="196"/>
+      <c r="B22" s="197"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="193" t="s">
+      <c r="A23" s="198" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="194"/>
+      <c r="B23" s="199"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="193"/>
-      <c r="B24" s="194"/>
+      <c r="A24" s="198"/>
+      <c r="B24" s="199"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="193" t="s">
+      <c r="A25" s="198" t="s">
         <v>208</v>
       </c>
-      <c r="B25" s="194"/>
+      <c r="B25" s="199"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="193" t="s">
+      <c r="A26" s="198" t="s">
         <v>209</v>
       </c>
-      <c r="B26" s="194"/>
+      <c r="B26" s="199"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="195"/>
-      <c r="B27" s="196"/>
+      <c r="A27" s="194"/>
+      <c r="B27" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -25611,19 +25798,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
